--- a/raw-data/combined_weed_seeds.xlsx
+++ b/raw-data/combined_weed_seeds.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/IMT/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE0B760-7456-CA46-AC61-67C922663B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD321A31-477A-624F-8AFC-413F1AD9E796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8200" yWindow="-25780" windowWidth="27240" windowHeight="16440" xr2:uid="{D1CC2367-0668-5146-9204-CD13304FDAF1}"/>
+    <workbookView xWindow="13460" yWindow="-18940" windowWidth="27240" windowHeight="16440" xr2:uid="{D1CC2367-0668-5146-9204-CD13304FDAF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2890" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3850" uniqueCount="165">
   <si>
     <t>sample_id</t>
   </si>
@@ -529,6 +529,9 @@
   <si>
     <t>FH_2023</t>
   </si>
+  <si>
+    <t>FH_2024</t>
+  </si>
 </sst>
 </file>
 
@@ -935,13 +938,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE444FCA-49F6-CB42-A466-1FD1F4688265}">
-  <dimension ref="A1:J721"/>
+  <dimension ref="A1:J961"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
-      <selection activeCell="D463" sqref="D463:D464"/>
+    <sheetView tabSelected="1" topLeftCell="A918" workbookViewId="0">
+      <selection activeCell="O721" sqref="O721"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -24013,6 +24019,7686 @@
       </c>
       <c r="J721" s="1">
         <v>3</v>
+      </c>
+    </row>
+    <row r="722" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A722" t="s">
+        <v>111</v>
+      </c>
+      <c r="B722" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C722" t="s">
+        <v>112</v>
+      </c>
+      <c r="D722" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E722" t="s">
+        <v>19</v>
+      </c>
+      <c r="F722">
+        <v>1</v>
+      </c>
+      <c r="G722">
+        <v>101</v>
+      </c>
+      <c r="H722">
+        <v>1</v>
+      </c>
+      <c r="I722" s="3">
+        <v>45199</v>
+      </c>
+      <c r="J722">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="723" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A723" t="s">
+        <v>113</v>
+      </c>
+      <c r="B723" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C723" t="s">
+        <v>112</v>
+      </c>
+      <c r="D723" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E723" t="s">
+        <v>19</v>
+      </c>
+      <c r="F723">
+        <v>1</v>
+      </c>
+      <c r="G723">
+        <v>101</v>
+      </c>
+      <c r="H723">
+        <v>1</v>
+      </c>
+      <c r="I723" s="3">
+        <v>45200</v>
+      </c>
+      <c r="J723">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="724" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A724" t="s">
+        <v>114</v>
+      </c>
+      <c r="B724" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C724" t="s">
+        <v>112</v>
+      </c>
+      <c r="D724" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E724" t="s">
+        <v>19</v>
+      </c>
+      <c r="F724">
+        <v>1</v>
+      </c>
+      <c r="G724">
+        <v>101</v>
+      </c>
+      <c r="H724">
+        <v>1</v>
+      </c>
+      <c r="I724" s="3">
+        <v>45201</v>
+      </c>
+      <c r="J724">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="725" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A725" t="s">
+        <v>115</v>
+      </c>
+      <c r="B725" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C725" t="s">
+        <v>112</v>
+      </c>
+      <c r="D725" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E725" t="s">
+        <v>11</v>
+      </c>
+      <c r="F725">
+        <v>1</v>
+      </c>
+      <c r="G725">
+        <v>102</v>
+      </c>
+      <c r="H725">
+        <v>1</v>
+      </c>
+      <c r="I725" s="3">
+        <v>45202</v>
+      </c>
+      <c r="J725">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="726" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A726" t="s">
+        <v>116</v>
+      </c>
+      <c r="B726" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C726" t="s">
+        <v>112</v>
+      </c>
+      <c r="D726" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E726" t="s">
+        <v>11</v>
+      </c>
+      <c r="F726">
+        <v>1</v>
+      </c>
+      <c r="G726">
+        <v>102</v>
+      </c>
+      <c r="H726">
+        <v>1</v>
+      </c>
+      <c r="I726" s="3">
+        <v>45203</v>
+      </c>
+      <c r="J726">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="727" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A727" t="s">
+        <v>117</v>
+      </c>
+      <c r="B727" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C727" t="s">
+        <v>112</v>
+      </c>
+      <c r="D727" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E727" t="s">
+        <v>11</v>
+      </c>
+      <c r="F727">
+        <v>1</v>
+      </c>
+      <c r="G727">
+        <v>102</v>
+      </c>
+      <c r="H727">
+        <v>1</v>
+      </c>
+      <c r="I727" s="3">
+        <v>45204</v>
+      </c>
+      <c r="J727">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="728" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A728" t="s">
+        <v>118</v>
+      </c>
+      <c r="B728" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C728" t="s">
+        <v>112</v>
+      </c>
+      <c r="D728" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E728" t="s">
+        <v>23</v>
+      </c>
+      <c r="F728">
+        <v>1</v>
+      </c>
+      <c r="G728">
+        <v>103</v>
+      </c>
+      <c r="H728">
+        <v>1</v>
+      </c>
+      <c r="I728" s="3">
+        <v>45205</v>
+      </c>
+      <c r="J728">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="729" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A729" t="s">
+        <v>119</v>
+      </c>
+      <c r="B729" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C729" t="s">
+        <v>112</v>
+      </c>
+      <c r="D729" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E729" t="s">
+        <v>23</v>
+      </c>
+      <c r="F729">
+        <v>1</v>
+      </c>
+      <c r="G729">
+        <v>103</v>
+      </c>
+      <c r="H729">
+        <v>1</v>
+      </c>
+      <c r="I729" s="3">
+        <v>45206</v>
+      </c>
+      <c r="J729">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="730" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A730" t="s">
+        <v>120</v>
+      </c>
+      <c r="B730" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C730" t="s">
+        <v>112</v>
+      </c>
+      <c r="D730" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E730" t="s">
+        <v>23</v>
+      </c>
+      <c r="F730">
+        <v>1</v>
+      </c>
+      <c r="G730">
+        <v>103</v>
+      </c>
+      <c r="H730">
+        <v>1</v>
+      </c>
+      <c r="I730" s="3">
+        <v>45207</v>
+      </c>
+      <c r="J730">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="731" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A731" t="s">
+        <v>121</v>
+      </c>
+      <c r="B731" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C731" t="s">
+        <v>112</v>
+      </c>
+      <c r="D731" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E731" t="s">
+        <v>15</v>
+      </c>
+      <c r="F731">
+        <v>1</v>
+      </c>
+      <c r="G731">
+        <v>104</v>
+      </c>
+      <c r="H731">
+        <v>1</v>
+      </c>
+      <c r="I731" s="3">
+        <v>45208</v>
+      </c>
+      <c r="J731">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="732" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A732" t="s">
+        <v>122</v>
+      </c>
+      <c r="B732" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C732" t="s">
+        <v>112</v>
+      </c>
+      <c r="D732" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E732" t="s">
+        <v>15</v>
+      </c>
+      <c r="F732">
+        <v>1</v>
+      </c>
+      <c r="G732">
+        <v>104</v>
+      </c>
+      <c r="H732">
+        <v>1</v>
+      </c>
+      <c r="I732" s="3">
+        <v>45209</v>
+      </c>
+      <c r="J732">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="733" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A733" t="s">
+        <v>123</v>
+      </c>
+      <c r="B733" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C733" t="s">
+        <v>112</v>
+      </c>
+      <c r="D733" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E733" t="s">
+        <v>15</v>
+      </c>
+      <c r="F733">
+        <v>1</v>
+      </c>
+      <c r="G733">
+        <v>104</v>
+      </c>
+      <c r="H733">
+        <v>1</v>
+      </c>
+      <c r="I733" s="3">
+        <v>45210</v>
+      </c>
+      <c r="J733">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="734" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A734" t="s">
+        <v>124</v>
+      </c>
+      <c r="B734" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C734" t="s">
+        <v>112</v>
+      </c>
+      <c r="D734" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E734" t="s">
+        <v>23</v>
+      </c>
+      <c r="F734">
+        <v>2</v>
+      </c>
+      <c r="G734">
+        <v>201</v>
+      </c>
+      <c r="H734">
+        <v>1</v>
+      </c>
+      <c r="I734" s="3">
+        <v>45211</v>
+      </c>
+      <c r="J734">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="735" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A735" t="s">
+        <v>125</v>
+      </c>
+      <c r="B735" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C735" t="s">
+        <v>112</v>
+      </c>
+      <c r="D735" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E735" t="s">
+        <v>23</v>
+      </c>
+      <c r="F735">
+        <v>2</v>
+      </c>
+      <c r="G735">
+        <v>201</v>
+      </c>
+      <c r="H735">
+        <v>1</v>
+      </c>
+      <c r="I735" s="3">
+        <v>45212</v>
+      </c>
+      <c r="J735">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="736" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A736" t="s">
+        <v>126</v>
+      </c>
+      <c r="B736" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C736" t="s">
+        <v>112</v>
+      </c>
+      <c r="D736" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E736" t="s">
+        <v>23</v>
+      </c>
+      <c r="F736">
+        <v>2</v>
+      </c>
+      <c r="G736">
+        <v>201</v>
+      </c>
+      <c r="H736">
+        <v>1</v>
+      </c>
+      <c r="I736" s="3">
+        <v>45213</v>
+      </c>
+      <c r="J736">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A737" t="s">
+        <v>127</v>
+      </c>
+      <c r="B737" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C737" t="s">
+        <v>112</v>
+      </c>
+      <c r="D737" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E737" t="s">
+        <v>15</v>
+      </c>
+      <c r="F737">
+        <v>2</v>
+      </c>
+      <c r="G737">
+        <v>202</v>
+      </c>
+      <c r="H737">
+        <v>1</v>
+      </c>
+      <c r="I737" s="3">
+        <v>45214</v>
+      </c>
+      <c r="J737">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A738" t="s">
+        <v>128</v>
+      </c>
+      <c r="B738" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C738" t="s">
+        <v>112</v>
+      </c>
+      <c r="D738" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E738" t="s">
+        <v>15</v>
+      </c>
+      <c r="F738">
+        <v>2</v>
+      </c>
+      <c r="G738">
+        <v>202</v>
+      </c>
+      <c r="H738">
+        <v>1</v>
+      </c>
+      <c r="I738" s="3">
+        <v>45215</v>
+      </c>
+      <c r="J738">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="739" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A739" t="s">
+        <v>129</v>
+      </c>
+      <c r="B739" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C739" t="s">
+        <v>112</v>
+      </c>
+      <c r="D739" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E739" t="s">
+        <v>15</v>
+      </c>
+      <c r="F739">
+        <v>2</v>
+      </c>
+      <c r="G739">
+        <v>202</v>
+      </c>
+      <c r="H739">
+        <v>1</v>
+      </c>
+      <c r="I739" s="3">
+        <v>45216</v>
+      </c>
+      <c r="J739">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="740" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A740" t="s">
+        <v>130</v>
+      </c>
+      <c r="B740" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C740" t="s">
+        <v>112</v>
+      </c>
+      <c r="D740" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E740" t="s">
+        <v>19</v>
+      </c>
+      <c r="F740">
+        <v>2</v>
+      </c>
+      <c r="G740">
+        <v>203</v>
+      </c>
+      <c r="H740">
+        <v>1</v>
+      </c>
+      <c r="I740" s="3">
+        <v>45217</v>
+      </c>
+      <c r="J740">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="741" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A741" t="s">
+        <v>131</v>
+      </c>
+      <c r="B741" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C741" t="s">
+        <v>112</v>
+      </c>
+      <c r="D741" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E741" t="s">
+        <v>19</v>
+      </c>
+      <c r="F741">
+        <v>2</v>
+      </c>
+      <c r="G741">
+        <v>203</v>
+      </c>
+      <c r="H741">
+        <v>1</v>
+      </c>
+      <c r="I741" s="3">
+        <v>45218</v>
+      </c>
+      <c r="J741">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="742" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A742" t="s">
+        <v>132</v>
+      </c>
+      <c r="B742" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C742" t="s">
+        <v>112</v>
+      </c>
+      <c r="D742" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E742" t="s">
+        <v>19</v>
+      </c>
+      <c r="F742">
+        <v>2</v>
+      </c>
+      <c r="G742">
+        <v>203</v>
+      </c>
+      <c r="H742">
+        <v>1</v>
+      </c>
+      <c r="I742" s="3">
+        <v>45219</v>
+      </c>
+      <c r="J742">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="743" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A743" t="s">
+        <v>133</v>
+      </c>
+      <c r="B743" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C743" t="s">
+        <v>112</v>
+      </c>
+      <c r="D743" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E743" t="s">
+        <v>11</v>
+      </c>
+      <c r="F743">
+        <v>2</v>
+      </c>
+      <c r="G743">
+        <v>204</v>
+      </c>
+      <c r="H743">
+        <v>1</v>
+      </c>
+      <c r="I743" s="3">
+        <v>45220</v>
+      </c>
+      <c r="J743">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="744" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A744" t="s">
+        <v>134</v>
+      </c>
+      <c r="B744" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C744" t="s">
+        <v>112</v>
+      </c>
+      <c r="D744" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E744" t="s">
+        <v>11</v>
+      </c>
+      <c r="F744">
+        <v>2</v>
+      </c>
+      <c r="G744">
+        <v>204</v>
+      </c>
+      <c r="H744">
+        <v>1</v>
+      </c>
+      <c r="I744" s="3">
+        <v>45221</v>
+      </c>
+      <c r="J744">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A745" t="s">
+        <v>135</v>
+      </c>
+      <c r="B745" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C745" t="s">
+        <v>112</v>
+      </c>
+      <c r="D745" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E745" t="s">
+        <v>11</v>
+      </c>
+      <c r="F745">
+        <v>2</v>
+      </c>
+      <c r="G745">
+        <v>204</v>
+      </c>
+      <c r="H745">
+        <v>1</v>
+      </c>
+      <c r="I745" s="3">
+        <v>45222</v>
+      </c>
+      <c r="J745">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A746" t="s">
+        <v>136</v>
+      </c>
+      <c r="B746" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C746" t="s">
+        <v>112</v>
+      </c>
+      <c r="D746" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E746" t="s">
+        <v>15</v>
+      </c>
+      <c r="F746">
+        <v>3</v>
+      </c>
+      <c r="G746">
+        <v>301</v>
+      </c>
+      <c r="H746">
+        <v>1</v>
+      </c>
+      <c r="I746" s="3">
+        <v>45223</v>
+      </c>
+      <c r="J746">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="747" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A747" t="s">
+        <v>137</v>
+      </c>
+      <c r="B747" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C747" t="s">
+        <v>112</v>
+      </c>
+      <c r="D747" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E747" t="s">
+        <v>15</v>
+      </c>
+      <c r="F747">
+        <v>3</v>
+      </c>
+      <c r="G747">
+        <v>301</v>
+      </c>
+      <c r="H747">
+        <v>1</v>
+      </c>
+      <c r="I747" s="3">
+        <v>45224</v>
+      </c>
+      <c r="J747">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A748" t="s">
+        <v>138</v>
+      </c>
+      <c r="B748" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C748" t="s">
+        <v>112</v>
+      </c>
+      <c r="D748" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E748" t="s">
+        <v>15</v>
+      </c>
+      <c r="F748">
+        <v>3</v>
+      </c>
+      <c r="G748">
+        <v>301</v>
+      </c>
+      <c r="H748">
+        <v>1</v>
+      </c>
+      <c r="I748" s="3">
+        <v>45225</v>
+      </c>
+      <c r="J748">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="749" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A749" t="s">
+        <v>139</v>
+      </c>
+      <c r="B749" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C749" t="s">
+        <v>112</v>
+      </c>
+      <c r="D749" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E749" t="s">
+        <v>19</v>
+      </c>
+      <c r="F749">
+        <v>3</v>
+      </c>
+      <c r="G749">
+        <v>302</v>
+      </c>
+      <c r="H749">
+        <v>1</v>
+      </c>
+      <c r="I749" s="3">
+        <v>45226</v>
+      </c>
+      <c r="J749">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="750" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A750" t="s">
+        <v>140</v>
+      </c>
+      <c r="B750" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C750" t="s">
+        <v>112</v>
+      </c>
+      <c r="D750" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E750" t="s">
+        <v>19</v>
+      </c>
+      <c r="F750">
+        <v>3</v>
+      </c>
+      <c r="G750">
+        <v>302</v>
+      </c>
+      <c r="H750">
+        <v>1</v>
+      </c>
+      <c r="I750" s="3">
+        <v>45227</v>
+      </c>
+      <c r="J750">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="751" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A751" t="s">
+        <v>141</v>
+      </c>
+      <c r="B751" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C751" t="s">
+        <v>112</v>
+      </c>
+      <c r="D751" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E751" t="s">
+        <v>19</v>
+      </c>
+      <c r="F751">
+        <v>3</v>
+      </c>
+      <c r="G751">
+        <v>302</v>
+      </c>
+      <c r="H751">
+        <v>1</v>
+      </c>
+      <c r="I751" s="3">
+        <v>45228</v>
+      </c>
+      <c r="J751">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="752" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A752" t="s">
+        <v>142</v>
+      </c>
+      <c r="B752" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C752" t="s">
+        <v>112</v>
+      </c>
+      <c r="D752" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E752" t="s">
+        <v>11</v>
+      </c>
+      <c r="F752">
+        <v>3</v>
+      </c>
+      <c r="G752">
+        <v>303</v>
+      </c>
+      <c r="H752">
+        <v>1</v>
+      </c>
+      <c r="I752" s="3">
+        <v>45229</v>
+      </c>
+      <c r="J752">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="753" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A753" t="s">
+        <v>143</v>
+      </c>
+      <c r="B753" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C753" t="s">
+        <v>112</v>
+      </c>
+      <c r="D753" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E753" t="s">
+        <v>11</v>
+      </c>
+      <c r="F753">
+        <v>3</v>
+      </c>
+      <c r="G753">
+        <v>303</v>
+      </c>
+      <c r="H753">
+        <v>1</v>
+      </c>
+      <c r="I753" s="3">
+        <v>45230</v>
+      </c>
+      <c r="J753">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="754" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A754" t="s">
+        <v>144</v>
+      </c>
+      <c r="B754" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C754" t="s">
+        <v>112</v>
+      </c>
+      <c r="D754" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E754" t="s">
+        <v>11</v>
+      </c>
+      <c r="F754">
+        <v>3</v>
+      </c>
+      <c r="G754">
+        <v>303</v>
+      </c>
+      <c r="H754">
+        <v>1</v>
+      </c>
+      <c r="I754" s="3">
+        <v>45231</v>
+      </c>
+      <c r="J754">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A755" t="s">
+        <v>145</v>
+      </c>
+      <c r="B755" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C755" t="s">
+        <v>112</v>
+      </c>
+      <c r="D755" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E755" t="s">
+        <v>23</v>
+      </c>
+      <c r="F755">
+        <v>3</v>
+      </c>
+      <c r="G755">
+        <v>304</v>
+      </c>
+      <c r="H755">
+        <v>1</v>
+      </c>
+      <c r="I755" s="3">
+        <v>45232</v>
+      </c>
+      <c r="J755">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="756" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A756" t="s">
+        <v>146</v>
+      </c>
+      <c r="B756" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C756" t="s">
+        <v>112</v>
+      </c>
+      <c r="D756" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E756" t="s">
+        <v>23</v>
+      </c>
+      <c r="F756">
+        <v>3</v>
+      </c>
+      <c r="G756">
+        <v>304</v>
+      </c>
+      <c r="H756">
+        <v>1</v>
+      </c>
+      <c r="I756" s="3">
+        <v>45233</v>
+      </c>
+      <c r="J756">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A757" t="s">
+        <v>147</v>
+      </c>
+      <c r="B757" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C757" t="s">
+        <v>112</v>
+      </c>
+      <c r="D757" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E757" t="s">
+        <v>23</v>
+      </c>
+      <c r="F757">
+        <v>3</v>
+      </c>
+      <c r="G757">
+        <v>304</v>
+      </c>
+      <c r="H757">
+        <v>1</v>
+      </c>
+      <c r="I757" s="3">
+        <v>45234</v>
+      </c>
+      <c r="J757">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="758" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A758" t="s">
+        <v>148</v>
+      </c>
+      <c r="B758" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C758" t="s">
+        <v>112</v>
+      </c>
+      <c r="D758" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E758" t="s">
+        <v>11</v>
+      </c>
+      <c r="F758">
+        <v>4</v>
+      </c>
+      <c r="G758">
+        <v>401</v>
+      </c>
+      <c r="H758">
+        <v>1</v>
+      </c>
+      <c r="I758" s="3">
+        <v>45235</v>
+      </c>
+      <c r="J758">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A759" t="s">
+        <v>149</v>
+      </c>
+      <c r="B759" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C759" t="s">
+        <v>112</v>
+      </c>
+      <c r="D759" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E759" t="s">
+        <v>11</v>
+      </c>
+      <c r="F759">
+        <v>4</v>
+      </c>
+      <c r="G759">
+        <v>401</v>
+      </c>
+      <c r="H759">
+        <v>1</v>
+      </c>
+      <c r="I759" s="3">
+        <v>45236</v>
+      </c>
+      <c r="J759">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="760" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A760" t="s">
+        <v>150</v>
+      </c>
+      <c r="B760" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C760" t="s">
+        <v>112</v>
+      </c>
+      <c r="D760" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E760" t="s">
+        <v>11</v>
+      </c>
+      <c r="F760">
+        <v>4</v>
+      </c>
+      <c r="G760">
+        <v>401</v>
+      </c>
+      <c r="H760">
+        <v>1</v>
+      </c>
+      <c r="I760" s="3">
+        <v>45237</v>
+      </c>
+      <c r="J760">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A761" t="s">
+        <v>151</v>
+      </c>
+      <c r="B761" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C761" t="s">
+        <v>112</v>
+      </c>
+      <c r="D761" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E761" t="s">
+        <v>23</v>
+      </c>
+      <c r="F761">
+        <v>4</v>
+      </c>
+      <c r="G761">
+        <v>402</v>
+      </c>
+      <c r="H761">
+        <v>1</v>
+      </c>
+      <c r="I761" s="3">
+        <v>45238</v>
+      </c>
+      <c r="J761">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A762" t="s">
+        <v>152</v>
+      </c>
+      <c r="B762" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C762" t="s">
+        <v>112</v>
+      </c>
+      <c r="D762" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E762" t="s">
+        <v>23</v>
+      </c>
+      <c r="F762">
+        <v>4</v>
+      </c>
+      <c r="G762">
+        <v>402</v>
+      </c>
+      <c r="H762">
+        <v>1</v>
+      </c>
+      <c r="I762" s="3">
+        <v>45239</v>
+      </c>
+      <c r="J762">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A763" t="s">
+        <v>153</v>
+      </c>
+      <c r="B763" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C763" t="s">
+        <v>112</v>
+      </c>
+      <c r="D763" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E763" t="s">
+        <v>23</v>
+      </c>
+      <c r="F763">
+        <v>4</v>
+      </c>
+      <c r="G763">
+        <v>402</v>
+      </c>
+      <c r="H763">
+        <v>1</v>
+      </c>
+      <c r="I763" s="3">
+        <v>45240</v>
+      </c>
+      <c r="J763">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A764" t="s">
+        <v>154</v>
+      </c>
+      <c r="B764" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C764" t="s">
+        <v>112</v>
+      </c>
+      <c r="D764" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E764" t="s">
+        <v>15</v>
+      </c>
+      <c r="F764">
+        <v>4</v>
+      </c>
+      <c r="G764">
+        <v>403</v>
+      </c>
+      <c r="H764">
+        <v>1</v>
+      </c>
+      <c r="I764" s="3">
+        <v>45241</v>
+      </c>
+      <c r="J764">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A765" t="s">
+        <v>155</v>
+      </c>
+      <c r="B765" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C765" t="s">
+        <v>112</v>
+      </c>
+      <c r="D765" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E765" t="s">
+        <v>15</v>
+      </c>
+      <c r="F765">
+        <v>4</v>
+      </c>
+      <c r="G765">
+        <v>403</v>
+      </c>
+      <c r="H765">
+        <v>1</v>
+      </c>
+      <c r="I765" s="3">
+        <v>45242</v>
+      </c>
+      <c r="J765">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A766" t="s">
+        <v>156</v>
+      </c>
+      <c r="B766" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C766" t="s">
+        <v>112</v>
+      </c>
+      <c r="D766" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E766" t="s">
+        <v>15</v>
+      </c>
+      <c r="F766">
+        <v>4</v>
+      </c>
+      <c r="G766">
+        <v>403</v>
+      </c>
+      <c r="H766">
+        <v>1</v>
+      </c>
+      <c r="I766" s="3">
+        <v>45243</v>
+      </c>
+      <c r="J766">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A767" t="s">
+        <v>157</v>
+      </c>
+      <c r="B767" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C767" t="s">
+        <v>112</v>
+      </c>
+      <c r="D767" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E767" t="s">
+        <v>19</v>
+      </c>
+      <c r="F767">
+        <v>4</v>
+      </c>
+      <c r="G767">
+        <v>404</v>
+      </c>
+      <c r="H767">
+        <v>1</v>
+      </c>
+      <c r="I767" s="3">
+        <v>45244</v>
+      </c>
+      <c r="J767">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A768" t="s">
+        <v>158</v>
+      </c>
+      <c r="B768" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C768" t="s">
+        <v>112</v>
+      </c>
+      <c r="D768" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E768" t="s">
+        <v>19</v>
+      </c>
+      <c r="F768">
+        <v>4</v>
+      </c>
+      <c r="G768">
+        <v>404</v>
+      </c>
+      <c r="H768">
+        <v>1</v>
+      </c>
+      <c r="I768" s="3">
+        <v>45245</v>
+      </c>
+      <c r="J768">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="769" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A769" t="s">
+        <v>159</v>
+      </c>
+      <c r="B769" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C769" t="s">
+        <v>112</v>
+      </c>
+      <c r="D769" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E769" t="s">
+        <v>19</v>
+      </c>
+      <c r="F769">
+        <v>4</v>
+      </c>
+      <c r="G769">
+        <v>404</v>
+      </c>
+      <c r="H769">
+        <v>1</v>
+      </c>
+      <c r="I769" s="3">
+        <v>45246</v>
+      </c>
+      <c r="J769">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A770" t="s">
+        <v>111</v>
+      </c>
+      <c r="B770" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C770" t="s">
+        <v>112</v>
+      </c>
+      <c r="D770" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E770" t="s">
+        <v>19</v>
+      </c>
+      <c r="F770">
+        <v>1</v>
+      </c>
+      <c r="G770">
+        <v>101</v>
+      </c>
+      <c r="H770">
+        <v>2</v>
+      </c>
+      <c r="I770" s="3">
+        <v>45247</v>
+      </c>
+      <c r="J770">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="771" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A771" t="s">
+        <v>113</v>
+      </c>
+      <c r="B771" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C771" t="s">
+        <v>112</v>
+      </c>
+      <c r="D771" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E771" t="s">
+        <v>19</v>
+      </c>
+      <c r="F771">
+        <v>1</v>
+      </c>
+      <c r="G771">
+        <v>101</v>
+      </c>
+      <c r="H771">
+        <v>2</v>
+      </c>
+      <c r="I771" s="3">
+        <v>45248</v>
+      </c>
+      <c r="J771">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="772" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A772" t="s">
+        <v>114</v>
+      </c>
+      <c r="B772" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C772" t="s">
+        <v>112</v>
+      </c>
+      <c r="D772" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E772" t="s">
+        <v>19</v>
+      </c>
+      <c r="F772">
+        <v>1</v>
+      </c>
+      <c r="G772">
+        <v>101</v>
+      </c>
+      <c r="H772">
+        <v>2</v>
+      </c>
+      <c r="I772" s="3">
+        <v>45249</v>
+      </c>
+      <c r="J772">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="773" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A773" t="s">
+        <v>115</v>
+      </c>
+      <c r="B773" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C773" t="s">
+        <v>112</v>
+      </c>
+      <c r="D773" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E773" t="s">
+        <v>11</v>
+      </c>
+      <c r="F773">
+        <v>1</v>
+      </c>
+      <c r="G773">
+        <v>102</v>
+      </c>
+      <c r="H773">
+        <v>2</v>
+      </c>
+      <c r="I773" s="3">
+        <v>45250</v>
+      </c>
+      <c r="J773">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="774" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A774" t="s">
+        <v>116</v>
+      </c>
+      <c r="B774" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C774" t="s">
+        <v>112</v>
+      </c>
+      <c r="D774" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E774" t="s">
+        <v>11</v>
+      </c>
+      <c r="F774">
+        <v>1</v>
+      </c>
+      <c r="G774">
+        <v>102</v>
+      </c>
+      <c r="H774">
+        <v>2</v>
+      </c>
+      <c r="I774" s="3">
+        <v>45251</v>
+      </c>
+      <c r="J774">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="775" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A775" t="s">
+        <v>117</v>
+      </c>
+      <c r="B775" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C775" t="s">
+        <v>112</v>
+      </c>
+      <c r="D775" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E775" t="s">
+        <v>11</v>
+      </c>
+      <c r="F775">
+        <v>1</v>
+      </c>
+      <c r="G775">
+        <v>102</v>
+      </c>
+      <c r="H775">
+        <v>2</v>
+      </c>
+      <c r="I775" s="3">
+        <v>45252</v>
+      </c>
+      <c r="J775">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="776" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A776" t="s">
+        <v>118</v>
+      </c>
+      <c r="B776" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C776" t="s">
+        <v>112</v>
+      </c>
+      <c r="D776" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E776" t="s">
+        <v>23</v>
+      </c>
+      <c r="F776">
+        <v>1</v>
+      </c>
+      <c r="G776">
+        <v>103</v>
+      </c>
+      <c r="H776">
+        <v>2</v>
+      </c>
+      <c r="I776" s="3">
+        <v>45253</v>
+      </c>
+      <c r="J776">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="777" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A777" t="s">
+        <v>119</v>
+      </c>
+      <c r="B777" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C777" t="s">
+        <v>112</v>
+      </c>
+      <c r="D777" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E777" t="s">
+        <v>23</v>
+      </c>
+      <c r="F777">
+        <v>1</v>
+      </c>
+      <c r="G777">
+        <v>103</v>
+      </c>
+      <c r="H777">
+        <v>2</v>
+      </c>
+      <c r="I777" s="3">
+        <v>45254</v>
+      </c>
+      <c r="J777">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="778" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A778" t="s">
+        <v>120</v>
+      </c>
+      <c r="B778" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C778" t="s">
+        <v>112</v>
+      </c>
+      <c r="D778" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E778" t="s">
+        <v>23</v>
+      </c>
+      <c r="F778">
+        <v>1</v>
+      </c>
+      <c r="G778">
+        <v>103</v>
+      </c>
+      <c r="H778">
+        <v>2</v>
+      </c>
+      <c r="I778" s="3">
+        <v>45255</v>
+      </c>
+      <c r="J778">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="779" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A779" t="s">
+        <v>121</v>
+      </c>
+      <c r="B779" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C779" t="s">
+        <v>112</v>
+      </c>
+      <c r="D779" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E779" t="s">
+        <v>15</v>
+      </c>
+      <c r="F779">
+        <v>1</v>
+      </c>
+      <c r="G779">
+        <v>104</v>
+      </c>
+      <c r="H779">
+        <v>2</v>
+      </c>
+      <c r="I779" s="3">
+        <v>45256</v>
+      </c>
+      <c r="J779">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="780" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A780" t="s">
+        <v>122</v>
+      </c>
+      <c r="B780" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C780" t="s">
+        <v>112</v>
+      </c>
+      <c r="D780" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E780" t="s">
+        <v>15</v>
+      </c>
+      <c r="F780">
+        <v>1</v>
+      </c>
+      <c r="G780">
+        <v>104</v>
+      </c>
+      <c r="H780">
+        <v>2</v>
+      </c>
+      <c r="I780" s="3">
+        <v>45257</v>
+      </c>
+      <c r="J780">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="781" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A781" t="s">
+        <v>123</v>
+      </c>
+      <c r="B781" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C781" t="s">
+        <v>112</v>
+      </c>
+      <c r="D781" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E781" t="s">
+        <v>15</v>
+      </c>
+      <c r="F781">
+        <v>1</v>
+      </c>
+      <c r="G781">
+        <v>104</v>
+      </c>
+      <c r="H781">
+        <v>2</v>
+      </c>
+      <c r="I781" s="3">
+        <v>45258</v>
+      </c>
+      <c r="J781">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="782" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A782" t="s">
+        <v>124</v>
+      </c>
+      <c r="B782" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C782" t="s">
+        <v>112</v>
+      </c>
+      <c r="D782" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E782" t="s">
+        <v>23</v>
+      </c>
+      <c r="F782">
+        <v>2</v>
+      </c>
+      <c r="G782">
+        <v>201</v>
+      </c>
+      <c r="H782">
+        <v>2</v>
+      </c>
+      <c r="I782" s="3">
+        <v>45259</v>
+      </c>
+      <c r="J782">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="783" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A783" t="s">
+        <v>125</v>
+      </c>
+      <c r="B783" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C783" t="s">
+        <v>112</v>
+      </c>
+      <c r="D783" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E783" t="s">
+        <v>23</v>
+      </c>
+      <c r="F783">
+        <v>2</v>
+      </c>
+      <c r="G783">
+        <v>201</v>
+      </c>
+      <c r="H783">
+        <v>2</v>
+      </c>
+      <c r="I783" s="3">
+        <v>45260</v>
+      </c>
+      <c r="J783">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="784" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A784" t="s">
+        <v>126</v>
+      </c>
+      <c r="B784" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C784" t="s">
+        <v>112</v>
+      </c>
+      <c r="D784" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E784" t="s">
+        <v>23</v>
+      </c>
+      <c r="F784">
+        <v>2</v>
+      </c>
+      <c r="G784">
+        <v>201</v>
+      </c>
+      <c r="H784">
+        <v>2</v>
+      </c>
+      <c r="I784" s="3">
+        <v>45261</v>
+      </c>
+      <c r="J784">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A785" t="s">
+        <v>127</v>
+      </c>
+      <c r="B785" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C785" t="s">
+        <v>112</v>
+      </c>
+      <c r="D785" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E785" t="s">
+        <v>15</v>
+      </c>
+      <c r="F785">
+        <v>2</v>
+      </c>
+      <c r="G785">
+        <v>202</v>
+      </c>
+      <c r="H785">
+        <v>2</v>
+      </c>
+      <c r="I785" s="3">
+        <v>45262</v>
+      </c>
+      <c r="J785">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A786" t="s">
+        <v>128</v>
+      </c>
+      <c r="B786" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C786" t="s">
+        <v>112</v>
+      </c>
+      <c r="D786" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E786" t="s">
+        <v>15</v>
+      </c>
+      <c r="F786">
+        <v>2</v>
+      </c>
+      <c r="G786">
+        <v>202</v>
+      </c>
+      <c r="H786">
+        <v>2</v>
+      </c>
+      <c r="I786" s="3">
+        <v>45263</v>
+      </c>
+      <c r="J786">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="787" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A787" t="s">
+        <v>129</v>
+      </c>
+      <c r="B787" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C787" t="s">
+        <v>112</v>
+      </c>
+      <c r="D787" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E787" t="s">
+        <v>15</v>
+      </c>
+      <c r="F787">
+        <v>2</v>
+      </c>
+      <c r="G787">
+        <v>202</v>
+      </c>
+      <c r="H787">
+        <v>2</v>
+      </c>
+      <c r="I787" s="3">
+        <v>45264</v>
+      </c>
+      <c r="J787">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="788" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A788" t="s">
+        <v>130</v>
+      </c>
+      <c r="B788" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C788" t="s">
+        <v>112</v>
+      </c>
+      <c r="D788" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E788" t="s">
+        <v>19</v>
+      </c>
+      <c r="F788">
+        <v>2</v>
+      </c>
+      <c r="G788">
+        <v>203</v>
+      </c>
+      <c r="H788">
+        <v>2</v>
+      </c>
+      <c r="I788" s="3">
+        <v>45265</v>
+      </c>
+      <c r="J788">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="789" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A789" t="s">
+        <v>131</v>
+      </c>
+      <c r="B789" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C789" t="s">
+        <v>112</v>
+      </c>
+      <c r="D789" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E789" t="s">
+        <v>19</v>
+      </c>
+      <c r="F789">
+        <v>2</v>
+      </c>
+      <c r="G789">
+        <v>203</v>
+      </c>
+      <c r="H789">
+        <v>2</v>
+      </c>
+      <c r="I789" s="3">
+        <v>45266</v>
+      </c>
+      <c r="J789">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="790" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A790" t="s">
+        <v>132</v>
+      </c>
+      <c r="B790" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C790" t="s">
+        <v>112</v>
+      </c>
+      <c r="D790" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E790" t="s">
+        <v>19</v>
+      </c>
+      <c r="F790">
+        <v>2</v>
+      </c>
+      <c r="G790">
+        <v>203</v>
+      </c>
+      <c r="H790">
+        <v>2</v>
+      </c>
+      <c r="I790" s="3">
+        <v>45267</v>
+      </c>
+      <c r="J790">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="791" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A791" t="s">
+        <v>133</v>
+      </c>
+      <c r="B791" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C791" t="s">
+        <v>112</v>
+      </c>
+      <c r="D791" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E791" t="s">
+        <v>11</v>
+      </c>
+      <c r="F791">
+        <v>2</v>
+      </c>
+      <c r="G791">
+        <v>204</v>
+      </c>
+      <c r="H791">
+        <v>2</v>
+      </c>
+      <c r="I791" s="3">
+        <v>45268</v>
+      </c>
+      <c r="J791">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="792" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A792" t="s">
+        <v>134</v>
+      </c>
+      <c r="B792" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C792" t="s">
+        <v>112</v>
+      </c>
+      <c r="D792" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E792" t="s">
+        <v>11</v>
+      </c>
+      <c r="F792">
+        <v>2</v>
+      </c>
+      <c r="G792">
+        <v>204</v>
+      </c>
+      <c r="H792">
+        <v>2</v>
+      </c>
+      <c r="I792" s="3">
+        <v>45269</v>
+      </c>
+      <c r="J792">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A793" t="s">
+        <v>135</v>
+      </c>
+      <c r="B793" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C793" t="s">
+        <v>112</v>
+      </c>
+      <c r="D793" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E793" t="s">
+        <v>11</v>
+      </c>
+      <c r="F793">
+        <v>2</v>
+      </c>
+      <c r="G793">
+        <v>204</v>
+      </c>
+      <c r="H793">
+        <v>2</v>
+      </c>
+      <c r="I793" s="3">
+        <v>45270</v>
+      </c>
+      <c r="J793">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A794" t="s">
+        <v>136</v>
+      </c>
+      <c r="B794" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C794" t="s">
+        <v>112</v>
+      </c>
+      <c r="D794" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E794" t="s">
+        <v>15</v>
+      </c>
+      <c r="F794">
+        <v>3</v>
+      </c>
+      <c r="G794">
+        <v>301</v>
+      </c>
+      <c r="H794">
+        <v>2</v>
+      </c>
+      <c r="I794" s="3">
+        <v>45271</v>
+      </c>
+      <c r="J794">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="795" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A795" t="s">
+        <v>137</v>
+      </c>
+      <c r="B795" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C795" t="s">
+        <v>112</v>
+      </c>
+      <c r="D795" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E795" t="s">
+        <v>15</v>
+      </c>
+      <c r="F795">
+        <v>3</v>
+      </c>
+      <c r="G795">
+        <v>301</v>
+      </c>
+      <c r="H795">
+        <v>2</v>
+      </c>
+      <c r="I795" s="3">
+        <v>45272</v>
+      </c>
+      <c r="J795">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="796" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A796" t="s">
+        <v>138</v>
+      </c>
+      <c r="B796" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C796" t="s">
+        <v>112</v>
+      </c>
+      <c r="D796" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E796" t="s">
+        <v>15</v>
+      </c>
+      <c r="F796">
+        <v>3</v>
+      </c>
+      <c r="G796">
+        <v>301</v>
+      </c>
+      <c r="H796">
+        <v>2</v>
+      </c>
+      <c r="I796" s="3">
+        <v>45273</v>
+      </c>
+      <c r="J796">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="797" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A797" t="s">
+        <v>139</v>
+      </c>
+      <c r="B797" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C797" t="s">
+        <v>112</v>
+      </c>
+      <c r="D797" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E797" t="s">
+        <v>19</v>
+      </c>
+      <c r="F797">
+        <v>3</v>
+      </c>
+      <c r="G797">
+        <v>302</v>
+      </c>
+      <c r="H797">
+        <v>2</v>
+      </c>
+      <c r="I797" s="3">
+        <v>45274</v>
+      </c>
+      <c r="J797">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A798" t="s">
+        <v>140</v>
+      </c>
+      <c r="B798" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C798" t="s">
+        <v>112</v>
+      </c>
+      <c r="D798" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E798" t="s">
+        <v>19</v>
+      </c>
+      <c r="F798">
+        <v>3</v>
+      </c>
+      <c r="G798">
+        <v>302</v>
+      </c>
+      <c r="H798">
+        <v>2</v>
+      </c>
+      <c r="I798" s="3">
+        <v>45275</v>
+      </c>
+      <c r="J798">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="799" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A799" t="s">
+        <v>141</v>
+      </c>
+      <c r="B799" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C799" t="s">
+        <v>112</v>
+      </c>
+      <c r="D799" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E799" t="s">
+        <v>19</v>
+      </c>
+      <c r="F799">
+        <v>3</v>
+      </c>
+      <c r="G799">
+        <v>302</v>
+      </c>
+      <c r="H799">
+        <v>2</v>
+      </c>
+      <c r="I799" s="3">
+        <v>45276</v>
+      </c>
+      <c r="J799">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="800" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A800" t="s">
+        <v>142</v>
+      </c>
+      <c r="B800" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C800" t="s">
+        <v>112</v>
+      </c>
+      <c r="D800" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E800" t="s">
+        <v>11</v>
+      </c>
+      <c r="F800">
+        <v>3</v>
+      </c>
+      <c r="G800">
+        <v>303</v>
+      </c>
+      <c r="H800">
+        <v>2</v>
+      </c>
+      <c r="I800" s="3">
+        <v>45277</v>
+      </c>
+      <c r="J800">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A801" t="s">
+        <v>143</v>
+      </c>
+      <c r="B801" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C801" t="s">
+        <v>112</v>
+      </c>
+      <c r="D801" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E801" t="s">
+        <v>11</v>
+      </c>
+      <c r="F801">
+        <v>3</v>
+      </c>
+      <c r="G801">
+        <v>303</v>
+      </c>
+      <c r="H801">
+        <v>2</v>
+      </c>
+      <c r="I801" s="3">
+        <v>45278</v>
+      </c>
+      <c r="J801">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="802" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A802" t="s">
+        <v>144</v>
+      </c>
+      <c r="B802" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C802" t="s">
+        <v>112</v>
+      </c>
+      <c r="D802" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E802" t="s">
+        <v>11</v>
+      </c>
+      <c r="F802">
+        <v>3</v>
+      </c>
+      <c r="G802">
+        <v>303</v>
+      </c>
+      <c r="H802">
+        <v>2</v>
+      </c>
+      <c r="I802" s="3">
+        <v>45279</v>
+      </c>
+      <c r="J802">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A803" t="s">
+        <v>145</v>
+      </c>
+      <c r="B803" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C803" t="s">
+        <v>112</v>
+      </c>
+      <c r="D803" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E803" t="s">
+        <v>23</v>
+      </c>
+      <c r="F803">
+        <v>3</v>
+      </c>
+      <c r="G803">
+        <v>304</v>
+      </c>
+      <c r="H803">
+        <v>2</v>
+      </c>
+      <c r="I803" s="3">
+        <v>45280</v>
+      </c>
+      <c r="J803">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="804" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A804" t="s">
+        <v>146</v>
+      </c>
+      <c r="B804" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C804" t="s">
+        <v>112</v>
+      </c>
+      <c r="D804" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E804" t="s">
+        <v>23</v>
+      </c>
+      <c r="F804">
+        <v>3</v>
+      </c>
+      <c r="G804">
+        <v>304</v>
+      </c>
+      <c r="H804">
+        <v>2</v>
+      </c>
+      <c r="I804" s="3">
+        <v>45281</v>
+      </c>
+      <c r="J804">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="805" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A805" t="s">
+        <v>147</v>
+      </c>
+      <c r="B805" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C805" t="s">
+        <v>112</v>
+      </c>
+      <c r="D805" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E805" t="s">
+        <v>23</v>
+      </c>
+      <c r="F805">
+        <v>3</v>
+      </c>
+      <c r="G805">
+        <v>304</v>
+      </c>
+      <c r="H805">
+        <v>2</v>
+      </c>
+      <c r="I805" s="3">
+        <v>45282</v>
+      </c>
+      <c r="J805">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="806" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A806" t="s">
+        <v>148</v>
+      </c>
+      <c r="B806" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C806" t="s">
+        <v>112</v>
+      </c>
+      <c r="D806" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E806" t="s">
+        <v>11</v>
+      </c>
+      <c r="F806">
+        <v>4</v>
+      </c>
+      <c r="G806">
+        <v>401</v>
+      </c>
+      <c r="H806">
+        <v>2</v>
+      </c>
+      <c r="I806" s="3">
+        <v>45283</v>
+      </c>
+      <c r="J806">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A807" t="s">
+        <v>149</v>
+      </c>
+      <c r="B807" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C807" t="s">
+        <v>112</v>
+      </c>
+      <c r="D807" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E807" t="s">
+        <v>11</v>
+      </c>
+      <c r="F807">
+        <v>4</v>
+      </c>
+      <c r="G807">
+        <v>401</v>
+      </c>
+      <c r="H807">
+        <v>2</v>
+      </c>
+      <c r="I807" s="3">
+        <v>45284</v>
+      </c>
+      <c r="J807">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="808" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A808" t="s">
+        <v>150</v>
+      </c>
+      <c r="B808" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C808" t="s">
+        <v>112</v>
+      </c>
+      <c r="D808" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E808" t="s">
+        <v>11</v>
+      </c>
+      <c r="F808">
+        <v>4</v>
+      </c>
+      <c r="G808">
+        <v>401</v>
+      </c>
+      <c r="H808">
+        <v>2</v>
+      </c>
+      <c r="I808" s="3">
+        <v>45285</v>
+      </c>
+      <c r="J808">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A809" t="s">
+        <v>151</v>
+      </c>
+      <c r="B809" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C809" t="s">
+        <v>112</v>
+      </c>
+      <c r="D809" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E809" t="s">
+        <v>23</v>
+      </c>
+      <c r="F809">
+        <v>4</v>
+      </c>
+      <c r="G809">
+        <v>402</v>
+      </c>
+      <c r="H809">
+        <v>2</v>
+      </c>
+      <c r="I809" s="3">
+        <v>45286</v>
+      </c>
+      <c r="J809">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="810" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A810" t="s">
+        <v>152</v>
+      </c>
+      <c r="B810" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C810" t="s">
+        <v>112</v>
+      </c>
+      <c r="D810" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E810" t="s">
+        <v>23</v>
+      </c>
+      <c r="F810">
+        <v>4</v>
+      </c>
+      <c r="G810">
+        <v>402</v>
+      </c>
+      <c r="H810">
+        <v>2</v>
+      </c>
+      <c r="I810" s="3">
+        <v>45287</v>
+      </c>
+      <c r="J810">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="811" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A811" t="s">
+        <v>153</v>
+      </c>
+      <c r="B811" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C811" t="s">
+        <v>112</v>
+      </c>
+      <c r="D811" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E811" t="s">
+        <v>23</v>
+      </c>
+      <c r="F811">
+        <v>4</v>
+      </c>
+      <c r="G811">
+        <v>402</v>
+      </c>
+      <c r="H811">
+        <v>2</v>
+      </c>
+      <c r="I811" s="3">
+        <v>45288</v>
+      </c>
+      <c r="J811">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A812" t="s">
+        <v>154</v>
+      </c>
+      <c r="B812" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C812" t="s">
+        <v>112</v>
+      </c>
+      <c r="D812" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E812" t="s">
+        <v>15</v>
+      </c>
+      <c r="F812">
+        <v>4</v>
+      </c>
+      <c r="G812">
+        <v>403</v>
+      </c>
+      <c r="H812">
+        <v>2</v>
+      </c>
+      <c r="I812" s="3">
+        <v>45289</v>
+      </c>
+      <c r="J812">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="813" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A813" t="s">
+        <v>155</v>
+      </c>
+      <c r="B813" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C813" t="s">
+        <v>112</v>
+      </c>
+      <c r="D813" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E813" t="s">
+        <v>15</v>
+      </c>
+      <c r="F813">
+        <v>4</v>
+      </c>
+      <c r="G813">
+        <v>403</v>
+      </c>
+      <c r="H813">
+        <v>2</v>
+      </c>
+      <c r="I813" s="3">
+        <v>45290</v>
+      </c>
+      <c r="J813">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A814" t="s">
+        <v>156</v>
+      </c>
+      <c r="B814" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C814" t="s">
+        <v>112</v>
+      </c>
+      <c r="D814" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E814" t="s">
+        <v>15</v>
+      </c>
+      <c r="F814">
+        <v>4</v>
+      </c>
+      <c r="G814">
+        <v>403</v>
+      </c>
+      <c r="H814">
+        <v>2</v>
+      </c>
+      <c r="I814" s="3">
+        <v>45291</v>
+      </c>
+      <c r="J814">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="815" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A815" t="s">
+        <v>157</v>
+      </c>
+      <c r="B815" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C815" t="s">
+        <v>112</v>
+      </c>
+      <c r="D815" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E815" t="s">
+        <v>19</v>
+      </c>
+      <c r="F815">
+        <v>4</v>
+      </c>
+      <c r="G815">
+        <v>404</v>
+      </c>
+      <c r="H815">
+        <v>2</v>
+      </c>
+      <c r="I815" s="3">
+        <v>45292</v>
+      </c>
+      <c r="J815">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="816" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A816" t="s">
+        <v>158</v>
+      </c>
+      <c r="B816" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C816" t="s">
+        <v>112</v>
+      </c>
+      <c r="D816" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E816" t="s">
+        <v>19</v>
+      </c>
+      <c r="F816">
+        <v>4</v>
+      </c>
+      <c r="G816">
+        <v>404</v>
+      </c>
+      <c r="H816">
+        <v>2</v>
+      </c>
+      <c r="I816" s="3">
+        <v>45293</v>
+      </c>
+      <c r="J816">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="817" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A817" t="s">
+        <v>159</v>
+      </c>
+      <c r="B817" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C817" t="s">
+        <v>112</v>
+      </c>
+      <c r="D817" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E817" t="s">
+        <v>19</v>
+      </c>
+      <c r="F817">
+        <v>4</v>
+      </c>
+      <c r="G817">
+        <v>404</v>
+      </c>
+      <c r="H817">
+        <v>2</v>
+      </c>
+      <c r="I817" s="3">
+        <v>45294</v>
+      </c>
+      <c r="J817">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A818" t="s">
+        <v>111</v>
+      </c>
+      <c r="B818" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C818" t="s">
+        <v>112</v>
+      </c>
+      <c r="D818" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E818" t="s">
+        <v>19</v>
+      </c>
+      <c r="F818">
+        <v>1</v>
+      </c>
+      <c r="G818">
+        <v>101</v>
+      </c>
+      <c r="H818">
+        <v>3</v>
+      </c>
+      <c r="I818" s="3">
+        <v>45295</v>
+      </c>
+      <c r="J818">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="819" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A819" t="s">
+        <v>113</v>
+      </c>
+      <c r="B819" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C819" t="s">
+        <v>112</v>
+      </c>
+      <c r="D819" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E819" t="s">
+        <v>19</v>
+      </c>
+      <c r="F819">
+        <v>1</v>
+      </c>
+      <c r="G819">
+        <v>101</v>
+      </c>
+      <c r="H819">
+        <v>3</v>
+      </c>
+      <c r="I819" s="3">
+        <v>45296</v>
+      </c>
+      <c r="J819">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="820" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A820" t="s">
+        <v>114</v>
+      </c>
+      <c r="B820" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C820" t="s">
+        <v>112</v>
+      </c>
+      <c r="D820" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E820" t="s">
+        <v>19</v>
+      </c>
+      <c r="F820">
+        <v>1</v>
+      </c>
+      <c r="G820">
+        <v>101</v>
+      </c>
+      <c r="H820">
+        <v>3</v>
+      </c>
+      <c r="I820" s="3">
+        <v>45297</v>
+      </c>
+      <c r="J820">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="821" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A821" t="s">
+        <v>115</v>
+      </c>
+      <c r="B821" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C821" t="s">
+        <v>112</v>
+      </c>
+      <c r="D821" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E821" t="s">
+        <v>11</v>
+      </c>
+      <c r="F821">
+        <v>1</v>
+      </c>
+      <c r="G821">
+        <v>102</v>
+      </c>
+      <c r="H821">
+        <v>3</v>
+      </c>
+      <c r="I821" s="3">
+        <v>45298</v>
+      </c>
+      <c r="J821">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="822" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A822" t="s">
+        <v>116</v>
+      </c>
+      <c r="B822" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C822" t="s">
+        <v>112</v>
+      </c>
+      <c r="D822" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E822" t="s">
+        <v>11</v>
+      </c>
+      <c r="F822">
+        <v>1</v>
+      </c>
+      <c r="G822">
+        <v>102</v>
+      </c>
+      <c r="H822">
+        <v>3</v>
+      </c>
+      <c r="I822" s="3">
+        <v>45299</v>
+      </c>
+      <c r="J822">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="823" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A823" t="s">
+        <v>117</v>
+      </c>
+      <c r="B823" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C823" t="s">
+        <v>112</v>
+      </c>
+      <c r="D823" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E823" t="s">
+        <v>11</v>
+      </c>
+      <c r="F823">
+        <v>1</v>
+      </c>
+      <c r="G823">
+        <v>102</v>
+      </c>
+      <c r="H823">
+        <v>3</v>
+      </c>
+      <c r="I823" s="3">
+        <v>45300</v>
+      </c>
+      <c r="J823">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="824" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A824" t="s">
+        <v>118</v>
+      </c>
+      <c r="B824" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C824" t="s">
+        <v>112</v>
+      </c>
+      <c r="D824" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E824" t="s">
+        <v>23</v>
+      </c>
+      <c r="F824">
+        <v>1</v>
+      </c>
+      <c r="G824">
+        <v>103</v>
+      </c>
+      <c r="H824">
+        <v>3</v>
+      </c>
+      <c r="I824" s="3">
+        <v>45301</v>
+      </c>
+      <c r="J824">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="825" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A825" t="s">
+        <v>119</v>
+      </c>
+      <c r="B825" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C825" t="s">
+        <v>112</v>
+      </c>
+      <c r="D825" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E825" t="s">
+        <v>23</v>
+      </c>
+      <c r="F825">
+        <v>1</v>
+      </c>
+      <c r="G825">
+        <v>103</v>
+      </c>
+      <c r="H825">
+        <v>3</v>
+      </c>
+      <c r="I825" s="3">
+        <v>45302</v>
+      </c>
+      <c r="J825">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="826" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A826" t="s">
+        <v>120</v>
+      </c>
+      <c r="B826" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C826" t="s">
+        <v>112</v>
+      </c>
+      <c r="D826" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E826" t="s">
+        <v>23</v>
+      </c>
+      <c r="F826">
+        <v>1</v>
+      </c>
+      <c r="G826">
+        <v>103</v>
+      </c>
+      <c r="H826">
+        <v>3</v>
+      </c>
+      <c r="I826" s="3">
+        <v>45303</v>
+      </c>
+      <c r="J826">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="827" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A827" t="s">
+        <v>121</v>
+      </c>
+      <c r="B827" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C827" t="s">
+        <v>112</v>
+      </c>
+      <c r="D827" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E827" t="s">
+        <v>15</v>
+      </c>
+      <c r="F827">
+        <v>1</v>
+      </c>
+      <c r="G827">
+        <v>104</v>
+      </c>
+      <c r="H827">
+        <v>3</v>
+      </c>
+      <c r="I827" s="3">
+        <v>45304</v>
+      </c>
+      <c r="J827">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="828" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A828" t="s">
+        <v>122</v>
+      </c>
+      <c r="B828" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C828" t="s">
+        <v>112</v>
+      </c>
+      <c r="D828" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E828" t="s">
+        <v>15</v>
+      </c>
+      <c r="F828">
+        <v>1</v>
+      </c>
+      <c r="G828">
+        <v>104</v>
+      </c>
+      <c r="H828">
+        <v>3</v>
+      </c>
+      <c r="I828" s="3">
+        <v>45305</v>
+      </c>
+      <c r="J828">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="829" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A829" t="s">
+        <v>123</v>
+      </c>
+      <c r="B829" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C829" t="s">
+        <v>112</v>
+      </c>
+      <c r="D829" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E829" t="s">
+        <v>15</v>
+      </c>
+      <c r="F829">
+        <v>1</v>
+      </c>
+      <c r="G829">
+        <v>104</v>
+      </c>
+      <c r="H829">
+        <v>3</v>
+      </c>
+      <c r="I829" s="3">
+        <v>45306</v>
+      </c>
+      <c r="J829">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="830" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A830" t="s">
+        <v>124</v>
+      </c>
+      <c r="B830" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C830" t="s">
+        <v>112</v>
+      </c>
+      <c r="D830" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E830" t="s">
+        <v>23</v>
+      </c>
+      <c r="F830">
+        <v>2</v>
+      </c>
+      <c r="G830">
+        <v>201</v>
+      </c>
+      <c r="H830">
+        <v>3</v>
+      </c>
+      <c r="I830" s="3">
+        <v>45307</v>
+      </c>
+      <c r="J830">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="831" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A831" t="s">
+        <v>125</v>
+      </c>
+      <c r="B831" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C831" t="s">
+        <v>112</v>
+      </c>
+      <c r="D831" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E831" t="s">
+        <v>23</v>
+      </c>
+      <c r="F831">
+        <v>2</v>
+      </c>
+      <c r="G831">
+        <v>201</v>
+      </c>
+      <c r="H831">
+        <v>3</v>
+      </c>
+      <c r="I831" s="3">
+        <v>45308</v>
+      </c>
+      <c r="J831">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="832" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A832" t="s">
+        <v>126</v>
+      </c>
+      <c r="B832" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C832" t="s">
+        <v>112</v>
+      </c>
+      <c r="D832" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E832" t="s">
+        <v>23</v>
+      </c>
+      <c r="F832">
+        <v>2</v>
+      </c>
+      <c r="G832">
+        <v>201</v>
+      </c>
+      <c r="H832">
+        <v>3</v>
+      </c>
+      <c r="I832" s="3">
+        <v>45309</v>
+      </c>
+      <c r="J832">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="833" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A833" t="s">
+        <v>127</v>
+      </c>
+      <c r="B833" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C833" t="s">
+        <v>112</v>
+      </c>
+      <c r="D833" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E833" t="s">
+        <v>15</v>
+      </c>
+      <c r="F833">
+        <v>2</v>
+      </c>
+      <c r="G833">
+        <v>202</v>
+      </c>
+      <c r="H833">
+        <v>3</v>
+      </c>
+      <c r="I833" s="3">
+        <v>45310</v>
+      </c>
+      <c r="J833">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="834" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A834" t="s">
+        <v>128</v>
+      </c>
+      <c r="B834" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C834" t="s">
+        <v>112</v>
+      </c>
+      <c r="D834" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E834" t="s">
+        <v>15</v>
+      </c>
+      <c r="F834">
+        <v>2</v>
+      </c>
+      <c r="G834">
+        <v>202</v>
+      </c>
+      <c r="H834">
+        <v>3</v>
+      </c>
+      <c r="I834" s="3">
+        <v>45311</v>
+      </c>
+      <c r="J834">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="835" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A835" t="s">
+        <v>129</v>
+      </c>
+      <c r="B835" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C835" t="s">
+        <v>112</v>
+      </c>
+      <c r="D835" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E835" t="s">
+        <v>15</v>
+      </c>
+      <c r="F835">
+        <v>2</v>
+      </c>
+      <c r="G835">
+        <v>202</v>
+      </c>
+      <c r="H835">
+        <v>3</v>
+      </c>
+      <c r="I835" s="3">
+        <v>45312</v>
+      </c>
+      <c r="J835">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="836" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A836" t="s">
+        <v>130</v>
+      </c>
+      <c r="B836" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C836" t="s">
+        <v>112</v>
+      </c>
+      <c r="D836" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E836" t="s">
+        <v>19</v>
+      </c>
+      <c r="F836">
+        <v>2</v>
+      </c>
+      <c r="G836">
+        <v>203</v>
+      </c>
+      <c r="H836">
+        <v>3</v>
+      </c>
+      <c r="I836" s="3">
+        <v>45313</v>
+      </c>
+      <c r="J836">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="837" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A837" t="s">
+        <v>131</v>
+      </c>
+      <c r="B837" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C837" t="s">
+        <v>112</v>
+      </c>
+      <c r="D837" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E837" t="s">
+        <v>19</v>
+      </c>
+      <c r="F837">
+        <v>2</v>
+      </c>
+      <c r="G837">
+        <v>203</v>
+      </c>
+      <c r="H837">
+        <v>3</v>
+      </c>
+      <c r="I837" s="3">
+        <v>45314</v>
+      </c>
+      <c r="J837">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A838" t="s">
+        <v>132</v>
+      </c>
+      <c r="B838" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C838" t="s">
+        <v>112</v>
+      </c>
+      <c r="D838" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E838" t="s">
+        <v>19</v>
+      </c>
+      <c r="F838">
+        <v>2</v>
+      </c>
+      <c r="G838">
+        <v>203</v>
+      </c>
+      <c r="H838">
+        <v>3</v>
+      </c>
+      <c r="I838" s="3">
+        <v>45315</v>
+      </c>
+      <c r="J838">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="839" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A839" t="s">
+        <v>133</v>
+      </c>
+      <c r="B839" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C839" t="s">
+        <v>112</v>
+      </c>
+      <c r="D839" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E839" t="s">
+        <v>11</v>
+      </c>
+      <c r="F839">
+        <v>2</v>
+      </c>
+      <c r="G839">
+        <v>204</v>
+      </c>
+      <c r="H839">
+        <v>3</v>
+      </c>
+      <c r="I839" s="3">
+        <v>45316</v>
+      </c>
+      <c r="J839">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="840" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A840" t="s">
+        <v>134</v>
+      </c>
+      <c r="B840" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C840" t="s">
+        <v>112</v>
+      </c>
+      <c r="D840" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E840" t="s">
+        <v>11</v>
+      </c>
+      <c r="F840">
+        <v>2</v>
+      </c>
+      <c r="G840">
+        <v>204</v>
+      </c>
+      <c r="H840">
+        <v>3</v>
+      </c>
+      <c r="I840" s="3">
+        <v>45317</v>
+      </c>
+      <c r="J840">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="841" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A841" t="s">
+        <v>135</v>
+      </c>
+      <c r="B841" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C841" t="s">
+        <v>112</v>
+      </c>
+      <c r="D841" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E841" t="s">
+        <v>11</v>
+      </c>
+      <c r="F841">
+        <v>2</v>
+      </c>
+      <c r="G841">
+        <v>204</v>
+      </c>
+      <c r="H841">
+        <v>3</v>
+      </c>
+      <c r="I841" s="3">
+        <v>45318</v>
+      </c>
+      <c r="J841">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="842" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A842" t="s">
+        <v>136</v>
+      </c>
+      <c r="B842" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C842" t="s">
+        <v>112</v>
+      </c>
+      <c r="D842" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E842" t="s">
+        <v>15</v>
+      </c>
+      <c r="F842">
+        <v>3</v>
+      </c>
+      <c r="G842">
+        <v>301</v>
+      </c>
+      <c r="H842">
+        <v>3</v>
+      </c>
+      <c r="I842" s="3">
+        <v>45319</v>
+      </c>
+      <c r="J842">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="843" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A843" t="s">
+        <v>137</v>
+      </c>
+      <c r="B843" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C843" t="s">
+        <v>112</v>
+      </c>
+      <c r="D843" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E843" t="s">
+        <v>15</v>
+      </c>
+      <c r="F843">
+        <v>3</v>
+      </c>
+      <c r="G843">
+        <v>301</v>
+      </c>
+      <c r="H843">
+        <v>3</v>
+      </c>
+      <c r="I843" s="3">
+        <v>45320</v>
+      </c>
+      <c r="J843">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A844" t="s">
+        <v>138</v>
+      </c>
+      <c r="B844" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C844" t="s">
+        <v>112</v>
+      </c>
+      <c r="D844" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E844" t="s">
+        <v>15</v>
+      </c>
+      <c r="F844">
+        <v>3</v>
+      </c>
+      <c r="G844">
+        <v>301</v>
+      </c>
+      <c r="H844">
+        <v>3</v>
+      </c>
+      <c r="I844" s="3">
+        <v>45321</v>
+      </c>
+      <c r="J844">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="845" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A845" t="s">
+        <v>139</v>
+      </c>
+      <c r="B845" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C845" t="s">
+        <v>112</v>
+      </c>
+      <c r="D845" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E845" t="s">
+        <v>19</v>
+      </c>
+      <c r="F845">
+        <v>3</v>
+      </c>
+      <c r="G845">
+        <v>302</v>
+      </c>
+      <c r="H845">
+        <v>3</v>
+      </c>
+      <c r="I845" s="3">
+        <v>45322</v>
+      </c>
+      <c r="J845">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A846" t="s">
+        <v>140</v>
+      </c>
+      <c r="B846" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C846" t="s">
+        <v>112</v>
+      </c>
+      <c r="D846" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E846" t="s">
+        <v>19</v>
+      </c>
+      <c r="F846">
+        <v>3</v>
+      </c>
+      <c r="G846">
+        <v>302</v>
+      </c>
+      <c r="H846">
+        <v>3</v>
+      </c>
+      <c r="I846" s="3">
+        <v>45323</v>
+      </c>
+      <c r="J846">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="847" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A847" t="s">
+        <v>141</v>
+      </c>
+      <c r="B847" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C847" t="s">
+        <v>112</v>
+      </c>
+      <c r="D847" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E847" t="s">
+        <v>19</v>
+      </c>
+      <c r="F847">
+        <v>3</v>
+      </c>
+      <c r="G847">
+        <v>302</v>
+      </c>
+      <c r="H847">
+        <v>3</v>
+      </c>
+      <c r="I847" s="3">
+        <v>45324</v>
+      </c>
+      <c r="J847">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="848" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A848" t="s">
+        <v>142</v>
+      </c>
+      <c r="B848" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C848" t="s">
+        <v>112</v>
+      </c>
+      <c r="D848" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E848" t="s">
+        <v>11</v>
+      </c>
+      <c r="F848">
+        <v>3</v>
+      </c>
+      <c r="G848">
+        <v>303</v>
+      </c>
+      <c r="H848">
+        <v>3</v>
+      </c>
+      <c r="I848" s="3">
+        <v>45325</v>
+      </c>
+      <c r="J848">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="849" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A849" t="s">
+        <v>143</v>
+      </c>
+      <c r="B849" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C849" t="s">
+        <v>112</v>
+      </c>
+      <c r="D849" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E849" t="s">
+        <v>11</v>
+      </c>
+      <c r="F849">
+        <v>3</v>
+      </c>
+      <c r="G849">
+        <v>303</v>
+      </c>
+      <c r="H849">
+        <v>3</v>
+      </c>
+      <c r="I849" s="3">
+        <v>45326</v>
+      </c>
+      <c r="J849">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="850" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A850" t="s">
+        <v>144</v>
+      </c>
+      <c r="B850" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C850" t="s">
+        <v>112</v>
+      </c>
+      <c r="D850" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E850" t="s">
+        <v>11</v>
+      </c>
+      <c r="F850">
+        <v>3</v>
+      </c>
+      <c r="G850">
+        <v>303</v>
+      </c>
+      <c r="H850">
+        <v>3</v>
+      </c>
+      <c r="I850" s="3">
+        <v>45327</v>
+      </c>
+      <c r="J850">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="851" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A851" t="s">
+        <v>145</v>
+      </c>
+      <c r="B851" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C851" t="s">
+        <v>112</v>
+      </c>
+      <c r="D851" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E851" t="s">
+        <v>23</v>
+      </c>
+      <c r="F851">
+        <v>3</v>
+      </c>
+      <c r="G851">
+        <v>304</v>
+      </c>
+      <c r="H851">
+        <v>3</v>
+      </c>
+      <c r="I851" s="3">
+        <v>45328</v>
+      </c>
+      <c r="J851">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="852" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A852" t="s">
+        <v>146</v>
+      </c>
+      <c r="B852" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C852" t="s">
+        <v>112</v>
+      </c>
+      <c r="D852" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E852" t="s">
+        <v>23</v>
+      </c>
+      <c r="F852">
+        <v>3</v>
+      </c>
+      <c r="G852">
+        <v>304</v>
+      </c>
+      <c r="H852">
+        <v>3</v>
+      </c>
+      <c r="I852" s="3">
+        <v>45329</v>
+      </c>
+      <c r="J852">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A853" t="s">
+        <v>147</v>
+      </c>
+      <c r="B853" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C853" t="s">
+        <v>112</v>
+      </c>
+      <c r="D853" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E853" t="s">
+        <v>23</v>
+      </c>
+      <c r="F853">
+        <v>3</v>
+      </c>
+      <c r="G853">
+        <v>304</v>
+      </c>
+      <c r="H853">
+        <v>3</v>
+      </c>
+      <c r="I853" s="3">
+        <v>45330</v>
+      </c>
+      <c r="J853">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="854" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A854" t="s">
+        <v>148</v>
+      </c>
+      <c r="B854" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C854" t="s">
+        <v>112</v>
+      </c>
+      <c r="D854" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E854" t="s">
+        <v>11</v>
+      </c>
+      <c r="F854">
+        <v>4</v>
+      </c>
+      <c r="G854">
+        <v>401</v>
+      </c>
+      <c r="H854">
+        <v>3</v>
+      </c>
+      <c r="I854" s="3">
+        <v>45331</v>
+      </c>
+      <c r="J854">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="855" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A855" t="s">
+        <v>149</v>
+      </c>
+      <c r="B855" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C855" t="s">
+        <v>112</v>
+      </c>
+      <c r="D855" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E855" t="s">
+        <v>11</v>
+      </c>
+      <c r="F855">
+        <v>4</v>
+      </c>
+      <c r="G855">
+        <v>401</v>
+      </c>
+      <c r="H855">
+        <v>3</v>
+      </c>
+      <c r="I855" s="3">
+        <v>45332</v>
+      </c>
+      <c r="J855">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="856" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A856" t="s">
+        <v>150</v>
+      </c>
+      <c r="B856" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C856" t="s">
+        <v>112</v>
+      </c>
+      <c r="D856" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E856" t="s">
+        <v>11</v>
+      </c>
+      <c r="F856">
+        <v>4</v>
+      </c>
+      <c r="G856">
+        <v>401</v>
+      </c>
+      <c r="H856">
+        <v>3</v>
+      </c>
+      <c r="I856" s="3">
+        <v>45333</v>
+      </c>
+      <c r="J856">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="857" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A857" t="s">
+        <v>151</v>
+      </c>
+      <c r="B857" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C857" t="s">
+        <v>112</v>
+      </c>
+      <c r="D857" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E857" t="s">
+        <v>23</v>
+      </c>
+      <c r="F857">
+        <v>4</v>
+      </c>
+      <c r="G857">
+        <v>402</v>
+      </c>
+      <c r="H857">
+        <v>3</v>
+      </c>
+      <c r="I857" s="3">
+        <v>45334</v>
+      </c>
+      <c r="J857">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="858" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A858" t="s">
+        <v>152</v>
+      </c>
+      <c r="B858" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C858" t="s">
+        <v>112</v>
+      </c>
+      <c r="D858" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E858" t="s">
+        <v>23</v>
+      </c>
+      <c r="F858">
+        <v>4</v>
+      </c>
+      <c r="G858">
+        <v>402</v>
+      </c>
+      <c r="H858">
+        <v>3</v>
+      </c>
+      <c r="I858" s="3">
+        <v>45335</v>
+      </c>
+      <c r="J858">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="859" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A859" t="s">
+        <v>153</v>
+      </c>
+      <c r="B859" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C859" t="s">
+        <v>112</v>
+      </c>
+      <c r="D859" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E859" t="s">
+        <v>23</v>
+      </c>
+      <c r="F859">
+        <v>4</v>
+      </c>
+      <c r="G859">
+        <v>402</v>
+      </c>
+      <c r="H859">
+        <v>3</v>
+      </c>
+      <c r="I859" s="3">
+        <v>45336</v>
+      </c>
+      <c r="J859">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="860" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A860" t="s">
+        <v>154</v>
+      </c>
+      <c r="B860" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C860" t="s">
+        <v>112</v>
+      </c>
+      <c r="D860" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E860" t="s">
+        <v>15</v>
+      </c>
+      <c r="F860">
+        <v>4</v>
+      </c>
+      <c r="G860">
+        <v>403</v>
+      </c>
+      <c r="H860">
+        <v>3</v>
+      </c>
+      <c r="I860" s="3">
+        <v>45337</v>
+      </c>
+      <c r="J860">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="861" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A861" t="s">
+        <v>155</v>
+      </c>
+      <c r="B861" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C861" t="s">
+        <v>112</v>
+      </c>
+      <c r="D861" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E861" t="s">
+        <v>15</v>
+      </c>
+      <c r="F861">
+        <v>4</v>
+      </c>
+      <c r="G861">
+        <v>403</v>
+      </c>
+      <c r="H861">
+        <v>3</v>
+      </c>
+      <c r="I861" s="3">
+        <v>45338</v>
+      </c>
+      <c r="J861">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="862" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A862" t="s">
+        <v>156</v>
+      </c>
+      <c r="B862" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C862" t="s">
+        <v>112</v>
+      </c>
+      <c r="D862" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E862" t="s">
+        <v>15</v>
+      </c>
+      <c r="F862">
+        <v>4</v>
+      </c>
+      <c r="G862">
+        <v>403</v>
+      </c>
+      <c r="H862">
+        <v>3</v>
+      </c>
+      <c r="I862" s="3">
+        <v>45339</v>
+      </c>
+      <c r="J862">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="863" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A863" t="s">
+        <v>157</v>
+      </c>
+      <c r="B863" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C863" t="s">
+        <v>112</v>
+      </c>
+      <c r="D863" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E863" t="s">
+        <v>19</v>
+      </c>
+      <c r="F863">
+        <v>4</v>
+      </c>
+      <c r="G863">
+        <v>404</v>
+      </c>
+      <c r="H863">
+        <v>3</v>
+      </c>
+      <c r="I863" s="3">
+        <v>45340</v>
+      </c>
+      <c r="J863">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="864" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A864" t="s">
+        <v>158</v>
+      </c>
+      <c r="B864" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C864" t="s">
+        <v>112</v>
+      </c>
+      <c r="D864" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E864" t="s">
+        <v>19</v>
+      </c>
+      <c r="F864">
+        <v>4</v>
+      </c>
+      <c r="G864">
+        <v>404</v>
+      </c>
+      <c r="H864">
+        <v>3</v>
+      </c>
+      <c r="I864" s="3">
+        <v>45341</v>
+      </c>
+      <c r="J864">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="865" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A865" t="s">
+        <v>159</v>
+      </c>
+      <c r="B865" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C865" t="s">
+        <v>112</v>
+      </c>
+      <c r="D865" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E865" t="s">
+        <v>19</v>
+      </c>
+      <c r="F865">
+        <v>4</v>
+      </c>
+      <c r="G865">
+        <v>404</v>
+      </c>
+      <c r="H865">
+        <v>3</v>
+      </c>
+      <c r="I865" s="3">
+        <v>45342</v>
+      </c>
+      <c r="J865">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="866" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A866" t="s">
+        <v>111</v>
+      </c>
+      <c r="B866" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C866" t="s">
+        <v>112</v>
+      </c>
+      <c r="D866" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E866" t="s">
+        <v>19</v>
+      </c>
+      <c r="F866">
+        <v>1</v>
+      </c>
+      <c r="G866">
+        <v>101</v>
+      </c>
+      <c r="H866">
+        <v>4</v>
+      </c>
+      <c r="I866" s="3">
+        <v>45343</v>
+      </c>
+      <c r="J866">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="867" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A867" t="s">
+        <v>113</v>
+      </c>
+      <c r="B867" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C867" t="s">
+        <v>112</v>
+      </c>
+      <c r="D867" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E867" t="s">
+        <v>19</v>
+      </c>
+      <c r="F867">
+        <v>1</v>
+      </c>
+      <c r="G867">
+        <v>101</v>
+      </c>
+      <c r="H867">
+        <v>4</v>
+      </c>
+      <c r="I867" s="3">
+        <v>45344</v>
+      </c>
+      <c r="J867">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="868" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A868" t="s">
+        <v>114</v>
+      </c>
+      <c r="B868" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C868" t="s">
+        <v>112</v>
+      </c>
+      <c r="D868" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E868" t="s">
+        <v>19</v>
+      </c>
+      <c r="F868">
+        <v>1</v>
+      </c>
+      <c r="G868">
+        <v>101</v>
+      </c>
+      <c r="H868">
+        <v>4</v>
+      </c>
+      <c r="I868" s="3">
+        <v>45345</v>
+      </c>
+      <c r="J868">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="869" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A869" t="s">
+        <v>115</v>
+      </c>
+      <c r="B869" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C869" t="s">
+        <v>112</v>
+      </c>
+      <c r="D869" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E869" t="s">
+        <v>11</v>
+      </c>
+      <c r="F869">
+        <v>1</v>
+      </c>
+      <c r="G869">
+        <v>102</v>
+      </c>
+      <c r="H869">
+        <v>4</v>
+      </c>
+      <c r="I869" s="3">
+        <v>45346</v>
+      </c>
+      <c r="J869">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="870" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A870" t="s">
+        <v>116</v>
+      </c>
+      <c r="B870" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C870" t="s">
+        <v>112</v>
+      </c>
+      <c r="D870" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E870" t="s">
+        <v>11</v>
+      </c>
+      <c r="F870">
+        <v>1</v>
+      </c>
+      <c r="G870">
+        <v>102</v>
+      </c>
+      <c r="H870">
+        <v>4</v>
+      </c>
+      <c r="I870" s="3">
+        <v>45347</v>
+      </c>
+      <c r="J870">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="871" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A871" t="s">
+        <v>117</v>
+      </c>
+      <c r="B871" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C871" t="s">
+        <v>112</v>
+      </c>
+      <c r="D871" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E871" t="s">
+        <v>11</v>
+      </c>
+      <c r="F871">
+        <v>1</v>
+      </c>
+      <c r="G871">
+        <v>102</v>
+      </c>
+      <c r="H871">
+        <v>4</v>
+      </c>
+      <c r="I871" s="3">
+        <v>45348</v>
+      </c>
+      <c r="J871">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A872" t="s">
+        <v>118</v>
+      </c>
+      <c r="B872" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C872" t="s">
+        <v>112</v>
+      </c>
+      <c r="D872" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E872" t="s">
+        <v>23</v>
+      </c>
+      <c r="F872">
+        <v>1</v>
+      </c>
+      <c r="G872">
+        <v>103</v>
+      </c>
+      <c r="H872">
+        <v>4</v>
+      </c>
+      <c r="I872" s="3">
+        <v>45349</v>
+      </c>
+      <c r="J872">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="873" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A873" t="s">
+        <v>119</v>
+      </c>
+      <c r="B873" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C873" t="s">
+        <v>112</v>
+      </c>
+      <c r="D873" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E873" t="s">
+        <v>23</v>
+      </c>
+      <c r="F873">
+        <v>1</v>
+      </c>
+      <c r="G873">
+        <v>103</v>
+      </c>
+      <c r="H873">
+        <v>4</v>
+      </c>
+      <c r="I873" s="3">
+        <v>45350</v>
+      </c>
+      <c r="J873">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="874" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A874" t="s">
+        <v>120</v>
+      </c>
+      <c r="B874" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C874" t="s">
+        <v>112</v>
+      </c>
+      <c r="D874" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E874" t="s">
+        <v>23</v>
+      </c>
+      <c r="F874">
+        <v>1</v>
+      </c>
+      <c r="G874">
+        <v>103</v>
+      </c>
+      <c r="H874">
+        <v>4</v>
+      </c>
+      <c r="I874" s="3">
+        <v>45351</v>
+      </c>
+      <c r="J874">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="875" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A875" t="s">
+        <v>121</v>
+      </c>
+      <c r="B875" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C875" t="s">
+        <v>112</v>
+      </c>
+      <c r="D875" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E875" t="s">
+        <v>15</v>
+      </c>
+      <c r="F875">
+        <v>1</v>
+      </c>
+      <c r="G875">
+        <v>104</v>
+      </c>
+      <c r="H875">
+        <v>4</v>
+      </c>
+      <c r="I875" s="3">
+        <v>45352</v>
+      </c>
+      <c r="J875">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="876" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A876" t="s">
+        <v>122</v>
+      </c>
+      <c r="B876" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C876" t="s">
+        <v>112</v>
+      </c>
+      <c r="D876" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E876" t="s">
+        <v>15</v>
+      </c>
+      <c r="F876">
+        <v>1</v>
+      </c>
+      <c r="G876">
+        <v>104</v>
+      </c>
+      <c r="H876">
+        <v>4</v>
+      </c>
+      <c r="I876" s="3">
+        <v>45353</v>
+      </c>
+      <c r="J876">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="877" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A877" t="s">
+        <v>123</v>
+      </c>
+      <c r="B877" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C877" t="s">
+        <v>112</v>
+      </c>
+      <c r="D877" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E877" t="s">
+        <v>15</v>
+      </c>
+      <c r="F877">
+        <v>1</v>
+      </c>
+      <c r="G877">
+        <v>104</v>
+      </c>
+      <c r="H877">
+        <v>4</v>
+      </c>
+      <c r="I877" s="3">
+        <v>45354</v>
+      </c>
+      <c r="J877">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="878" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A878" t="s">
+        <v>124</v>
+      </c>
+      <c r="B878" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C878" t="s">
+        <v>112</v>
+      </c>
+      <c r="D878" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E878" t="s">
+        <v>23</v>
+      </c>
+      <c r="F878">
+        <v>2</v>
+      </c>
+      <c r="G878">
+        <v>201</v>
+      </c>
+      <c r="H878">
+        <v>4</v>
+      </c>
+      <c r="I878" s="3">
+        <v>45355</v>
+      </c>
+      <c r="J878">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="879" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A879" t="s">
+        <v>125</v>
+      </c>
+      <c r="B879" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C879" t="s">
+        <v>112</v>
+      </c>
+      <c r="D879" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E879" t="s">
+        <v>23</v>
+      </c>
+      <c r="F879">
+        <v>2</v>
+      </c>
+      <c r="G879">
+        <v>201</v>
+      </c>
+      <c r="H879">
+        <v>4</v>
+      </c>
+      <c r="I879" s="3">
+        <v>45356</v>
+      </c>
+      <c r="J879">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="880" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A880" t="s">
+        <v>126</v>
+      </c>
+      <c r="B880" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C880" t="s">
+        <v>112</v>
+      </c>
+      <c r="D880" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E880" t="s">
+        <v>23</v>
+      </c>
+      <c r="F880">
+        <v>2</v>
+      </c>
+      <c r="G880">
+        <v>201</v>
+      </c>
+      <c r="H880">
+        <v>4</v>
+      </c>
+      <c r="I880" s="3">
+        <v>45357</v>
+      </c>
+      <c r="J880">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A881" t="s">
+        <v>127</v>
+      </c>
+      <c r="B881" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C881" t="s">
+        <v>112</v>
+      </c>
+      <c r="D881" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E881" t="s">
+        <v>15</v>
+      </c>
+      <c r="F881">
+        <v>2</v>
+      </c>
+      <c r="G881">
+        <v>202</v>
+      </c>
+      <c r="H881">
+        <v>4</v>
+      </c>
+      <c r="I881" s="3">
+        <v>45358</v>
+      </c>
+      <c r="J881">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="882" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A882" t="s">
+        <v>128</v>
+      </c>
+      <c r="B882" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C882" t="s">
+        <v>112</v>
+      </c>
+      <c r="D882" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E882" t="s">
+        <v>15</v>
+      </c>
+      <c r="F882">
+        <v>2</v>
+      </c>
+      <c r="G882">
+        <v>202</v>
+      </c>
+      <c r="H882">
+        <v>4</v>
+      </c>
+      <c r="I882" s="3">
+        <v>45359</v>
+      </c>
+      <c r="J882">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="883" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A883" t="s">
+        <v>129</v>
+      </c>
+      <c r="B883" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C883" t="s">
+        <v>112</v>
+      </c>
+      <c r="D883" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E883" t="s">
+        <v>15</v>
+      </c>
+      <c r="F883">
+        <v>2</v>
+      </c>
+      <c r="G883">
+        <v>202</v>
+      </c>
+      <c r="H883">
+        <v>4</v>
+      </c>
+      <c r="I883" s="3">
+        <v>45360</v>
+      </c>
+      <c r="J883">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="884" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A884" t="s">
+        <v>130</v>
+      </c>
+      <c r="B884" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C884" t="s">
+        <v>112</v>
+      </c>
+      <c r="D884" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E884" t="s">
+        <v>19</v>
+      </c>
+      <c r="F884">
+        <v>2</v>
+      </c>
+      <c r="G884">
+        <v>203</v>
+      </c>
+      <c r="H884">
+        <v>4</v>
+      </c>
+      <c r="I884" s="3">
+        <v>45361</v>
+      </c>
+      <c r="J884">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="885" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A885" t="s">
+        <v>131</v>
+      </c>
+      <c r="B885" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C885" t="s">
+        <v>112</v>
+      </c>
+      <c r="D885" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E885" t="s">
+        <v>19</v>
+      </c>
+      <c r="F885">
+        <v>2</v>
+      </c>
+      <c r="G885">
+        <v>203</v>
+      </c>
+      <c r="H885">
+        <v>4</v>
+      </c>
+      <c r="I885" s="3">
+        <v>45362</v>
+      </c>
+      <c r="J885">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="886" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A886" t="s">
+        <v>132</v>
+      </c>
+      <c r="B886" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C886" t="s">
+        <v>112</v>
+      </c>
+      <c r="D886" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E886" t="s">
+        <v>19</v>
+      </c>
+      <c r="F886">
+        <v>2</v>
+      </c>
+      <c r="G886">
+        <v>203</v>
+      </c>
+      <c r="H886">
+        <v>4</v>
+      </c>
+      <c r="I886" s="3">
+        <v>45363</v>
+      </c>
+      <c r="J886">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="887" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A887" t="s">
+        <v>133</v>
+      </c>
+      <c r="B887" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C887" t="s">
+        <v>112</v>
+      </c>
+      <c r="D887" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E887" t="s">
+        <v>11</v>
+      </c>
+      <c r="F887">
+        <v>2</v>
+      </c>
+      <c r="G887">
+        <v>204</v>
+      </c>
+      <c r="H887">
+        <v>4</v>
+      </c>
+      <c r="I887" s="3">
+        <v>45364</v>
+      </c>
+      <c r="J887">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="888" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A888" t="s">
+        <v>134</v>
+      </c>
+      <c r="B888" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C888" t="s">
+        <v>112</v>
+      </c>
+      <c r="D888" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E888" t="s">
+        <v>11</v>
+      </c>
+      <c r="F888">
+        <v>2</v>
+      </c>
+      <c r="G888">
+        <v>204</v>
+      </c>
+      <c r="H888">
+        <v>4</v>
+      </c>
+      <c r="I888" s="3">
+        <v>45365</v>
+      </c>
+      <c r="J888">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="889" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A889" t="s">
+        <v>135</v>
+      </c>
+      <c r="B889" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C889" t="s">
+        <v>112</v>
+      </c>
+      <c r="D889" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E889" t="s">
+        <v>11</v>
+      </c>
+      <c r="F889">
+        <v>2</v>
+      </c>
+      <c r="G889">
+        <v>204</v>
+      </c>
+      <c r="H889">
+        <v>4</v>
+      </c>
+      <c r="I889" s="3">
+        <v>45366</v>
+      </c>
+      <c r="J889">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A890" t="s">
+        <v>136</v>
+      </c>
+      <c r="B890" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C890" t="s">
+        <v>112</v>
+      </c>
+      <c r="D890" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E890" t="s">
+        <v>15</v>
+      </c>
+      <c r="F890">
+        <v>3</v>
+      </c>
+      <c r="G890">
+        <v>301</v>
+      </c>
+      <c r="H890">
+        <v>4</v>
+      </c>
+      <c r="I890" s="3">
+        <v>45367</v>
+      </c>
+      <c r="J890">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="891" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A891" t="s">
+        <v>137</v>
+      </c>
+      <c r="B891" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C891" t="s">
+        <v>112</v>
+      </c>
+      <c r="D891" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E891" t="s">
+        <v>15</v>
+      </c>
+      <c r="F891">
+        <v>3</v>
+      </c>
+      <c r="G891">
+        <v>301</v>
+      </c>
+      <c r="H891">
+        <v>4</v>
+      </c>
+      <c r="I891" s="3">
+        <v>45368</v>
+      </c>
+      <c r="J891">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="892" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A892" t="s">
+        <v>138</v>
+      </c>
+      <c r="B892" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C892" t="s">
+        <v>112</v>
+      </c>
+      <c r="D892" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E892" t="s">
+        <v>15</v>
+      </c>
+      <c r="F892">
+        <v>3</v>
+      </c>
+      <c r="G892">
+        <v>301</v>
+      </c>
+      <c r="H892">
+        <v>4</v>
+      </c>
+      <c r="I892" s="3">
+        <v>45369</v>
+      </c>
+      <c r="J892">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="893" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A893" t="s">
+        <v>139</v>
+      </c>
+      <c r="B893" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C893" t="s">
+        <v>112</v>
+      </c>
+      <c r="D893" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E893" t="s">
+        <v>19</v>
+      </c>
+      <c r="F893">
+        <v>3</v>
+      </c>
+      <c r="G893">
+        <v>302</v>
+      </c>
+      <c r="H893">
+        <v>4</v>
+      </c>
+      <c r="I893" s="3">
+        <v>45370</v>
+      </c>
+      <c r="J893">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A894" t="s">
+        <v>140</v>
+      </c>
+      <c r="B894" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C894" t="s">
+        <v>112</v>
+      </c>
+      <c r="D894" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E894" t="s">
+        <v>19</v>
+      </c>
+      <c r="F894">
+        <v>3</v>
+      </c>
+      <c r="G894">
+        <v>302</v>
+      </c>
+      <c r="H894">
+        <v>4</v>
+      </c>
+      <c r="I894" s="3">
+        <v>45371</v>
+      </c>
+      <c r="J894">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="895" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A895" t="s">
+        <v>141</v>
+      </c>
+      <c r="B895" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C895" t="s">
+        <v>112</v>
+      </c>
+      <c r="D895" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E895" t="s">
+        <v>19</v>
+      </c>
+      <c r="F895">
+        <v>3</v>
+      </c>
+      <c r="G895">
+        <v>302</v>
+      </c>
+      <c r="H895">
+        <v>4</v>
+      </c>
+      <c r="I895" s="3">
+        <v>45372</v>
+      </c>
+      <c r="J895">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="896" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A896" t="s">
+        <v>142</v>
+      </c>
+      <c r="B896" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C896" t="s">
+        <v>112</v>
+      </c>
+      <c r="D896" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E896" t="s">
+        <v>11</v>
+      </c>
+      <c r="F896">
+        <v>3</v>
+      </c>
+      <c r="G896">
+        <v>303</v>
+      </c>
+      <c r="H896">
+        <v>4</v>
+      </c>
+      <c r="I896" s="3">
+        <v>45373</v>
+      </c>
+      <c r="J896">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="897" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A897" t="s">
+        <v>143</v>
+      </c>
+      <c r="B897" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C897" t="s">
+        <v>112</v>
+      </c>
+      <c r="D897" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E897" t="s">
+        <v>11</v>
+      </c>
+      <c r="F897">
+        <v>3</v>
+      </c>
+      <c r="G897">
+        <v>303</v>
+      </c>
+      <c r="H897">
+        <v>4</v>
+      </c>
+      <c r="I897" s="3">
+        <v>45374</v>
+      </c>
+      <c r="J897">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="898" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A898" t="s">
+        <v>144</v>
+      </c>
+      <c r="B898" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C898" t="s">
+        <v>112</v>
+      </c>
+      <c r="D898" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E898" t="s">
+        <v>11</v>
+      </c>
+      <c r="F898">
+        <v>3</v>
+      </c>
+      <c r="G898">
+        <v>303</v>
+      </c>
+      <c r="H898">
+        <v>4</v>
+      </c>
+      <c r="I898" s="3">
+        <v>45375</v>
+      </c>
+      <c r="J898">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="899" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A899" t="s">
+        <v>145</v>
+      </c>
+      <c r="B899" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C899" t="s">
+        <v>112</v>
+      </c>
+      <c r="D899" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E899" t="s">
+        <v>23</v>
+      </c>
+      <c r="F899">
+        <v>3</v>
+      </c>
+      <c r="G899">
+        <v>304</v>
+      </c>
+      <c r="H899">
+        <v>4</v>
+      </c>
+      <c r="I899" s="3">
+        <v>45376</v>
+      </c>
+      <c r="J899">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="900" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A900" t="s">
+        <v>146</v>
+      </c>
+      <c r="B900" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C900" t="s">
+        <v>112</v>
+      </c>
+      <c r="D900" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E900" t="s">
+        <v>23</v>
+      </c>
+      <c r="F900">
+        <v>3</v>
+      </c>
+      <c r="G900">
+        <v>304</v>
+      </c>
+      <c r="H900">
+        <v>4</v>
+      </c>
+      <c r="I900" s="3">
+        <v>45377</v>
+      </c>
+      <c r="J900">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A901" t="s">
+        <v>147</v>
+      </c>
+      <c r="B901" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C901" t="s">
+        <v>112</v>
+      </c>
+      <c r="D901" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E901" t="s">
+        <v>23</v>
+      </c>
+      <c r="F901">
+        <v>3</v>
+      </c>
+      <c r="G901">
+        <v>304</v>
+      </c>
+      <c r="H901">
+        <v>4</v>
+      </c>
+      <c r="I901" s="3">
+        <v>45378</v>
+      </c>
+      <c r="J901">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="902" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A902" t="s">
+        <v>148</v>
+      </c>
+      <c r="B902" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C902" t="s">
+        <v>112</v>
+      </c>
+      <c r="D902" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E902" t="s">
+        <v>11</v>
+      </c>
+      <c r="F902">
+        <v>4</v>
+      </c>
+      <c r="G902">
+        <v>401</v>
+      </c>
+      <c r="H902">
+        <v>4</v>
+      </c>
+      <c r="I902" s="3">
+        <v>45379</v>
+      </c>
+      <c r="J902">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="903" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A903" t="s">
+        <v>149</v>
+      </c>
+      <c r="B903" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C903" t="s">
+        <v>112</v>
+      </c>
+      <c r="D903" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E903" t="s">
+        <v>11</v>
+      </c>
+      <c r="F903">
+        <v>4</v>
+      </c>
+      <c r="G903">
+        <v>401</v>
+      </c>
+      <c r="H903">
+        <v>4</v>
+      </c>
+      <c r="I903" s="3">
+        <v>45380</v>
+      </c>
+      <c r="J903">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="904" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A904" t="s">
+        <v>150</v>
+      </c>
+      <c r="B904" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C904" t="s">
+        <v>112</v>
+      </c>
+      <c r="D904" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E904" t="s">
+        <v>11</v>
+      </c>
+      <c r="F904">
+        <v>4</v>
+      </c>
+      <c r="G904">
+        <v>401</v>
+      </c>
+      <c r="H904">
+        <v>4</v>
+      </c>
+      <c r="I904" s="3">
+        <v>45381</v>
+      </c>
+      <c r="J904">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="905" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A905" t="s">
+        <v>151</v>
+      </c>
+      <c r="B905" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C905" t="s">
+        <v>112</v>
+      </c>
+      <c r="D905" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E905" t="s">
+        <v>23</v>
+      </c>
+      <c r="F905">
+        <v>4</v>
+      </c>
+      <c r="G905">
+        <v>402</v>
+      </c>
+      <c r="H905">
+        <v>4</v>
+      </c>
+      <c r="I905" s="3">
+        <v>45382</v>
+      </c>
+      <c r="J905">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="906" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A906" t="s">
+        <v>152</v>
+      </c>
+      <c r="B906" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C906" t="s">
+        <v>112</v>
+      </c>
+      <c r="D906" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E906" t="s">
+        <v>23</v>
+      </c>
+      <c r="F906">
+        <v>4</v>
+      </c>
+      <c r="G906">
+        <v>402</v>
+      </c>
+      <c r="H906">
+        <v>4</v>
+      </c>
+      <c r="I906" s="3">
+        <v>45383</v>
+      </c>
+      <c r="J906">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="907" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A907" t="s">
+        <v>153</v>
+      </c>
+      <c r="B907" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C907" t="s">
+        <v>112</v>
+      </c>
+      <c r="D907" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E907" t="s">
+        <v>23</v>
+      </c>
+      <c r="F907">
+        <v>4</v>
+      </c>
+      <c r="G907">
+        <v>402</v>
+      </c>
+      <c r="H907">
+        <v>4</v>
+      </c>
+      <c r="I907" s="3">
+        <v>45384</v>
+      </c>
+      <c r="J907">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="908" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A908" t="s">
+        <v>154</v>
+      </c>
+      <c r="B908" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C908" t="s">
+        <v>112</v>
+      </c>
+      <c r="D908" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E908" t="s">
+        <v>15</v>
+      </c>
+      <c r="F908">
+        <v>4</v>
+      </c>
+      <c r="G908">
+        <v>403</v>
+      </c>
+      <c r="H908">
+        <v>4</v>
+      </c>
+      <c r="I908" s="3">
+        <v>45385</v>
+      </c>
+      <c r="J908">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="909" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A909" t="s">
+        <v>155</v>
+      </c>
+      <c r="B909" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C909" t="s">
+        <v>112</v>
+      </c>
+      <c r="D909" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E909" t="s">
+        <v>15</v>
+      </c>
+      <c r="F909">
+        <v>4</v>
+      </c>
+      <c r="G909">
+        <v>403</v>
+      </c>
+      <c r="H909">
+        <v>4</v>
+      </c>
+      <c r="I909" s="3">
+        <v>45386</v>
+      </c>
+      <c r="J909">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="910" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A910" t="s">
+        <v>156</v>
+      </c>
+      <c r="B910" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C910" t="s">
+        <v>112</v>
+      </c>
+      <c r="D910" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E910" t="s">
+        <v>15</v>
+      </c>
+      <c r="F910">
+        <v>4</v>
+      </c>
+      <c r="G910">
+        <v>403</v>
+      </c>
+      <c r="H910">
+        <v>4</v>
+      </c>
+      <c r="I910" s="3">
+        <v>45387</v>
+      </c>
+      <c r="J910">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="911" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A911" t="s">
+        <v>157</v>
+      </c>
+      <c r="B911" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C911" t="s">
+        <v>112</v>
+      </c>
+      <c r="D911" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E911" t="s">
+        <v>19</v>
+      </c>
+      <c r="F911">
+        <v>4</v>
+      </c>
+      <c r="G911">
+        <v>404</v>
+      </c>
+      <c r="H911">
+        <v>4</v>
+      </c>
+      <c r="I911" s="3">
+        <v>45388</v>
+      </c>
+      <c r="J911">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="912" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A912" t="s">
+        <v>158</v>
+      </c>
+      <c r="B912" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C912" t="s">
+        <v>112</v>
+      </c>
+      <c r="D912" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E912" t="s">
+        <v>19</v>
+      </c>
+      <c r="F912">
+        <v>4</v>
+      </c>
+      <c r="G912">
+        <v>404</v>
+      </c>
+      <c r="H912">
+        <v>4</v>
+      </c>
+      <c r="I912" s="3">
+        <v>45389</v>
+      </c>
+      <c r="J912">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="913" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A913" t="s">
+        <v>159</v>
+      </c>
+      <c r="B913" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C913" t="s">
+        <v>112</v>
+      </c>
+      <c r="D913" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E913" t="s">
+        <v>19</v>
+      </c>
+      <c r="F913">
+        <v>4</v>
+      </c>
+      <c r="G913">
+        <v>404</v>
+      </c>
+      <c r="H913">
+        <v>4</v>
+      </c>
+      <c r="I913" s="3">
+        <v>45390</v>
+      </c>
+      <c r="J913">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="914" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A914" t="s">
+        <v>111</v>
+      </c>
+      <c r="B914" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C914" t="s">
+        <v>112</v>
+      </c>
+      <c r="D914" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E914" t="s">
+        <v>19</v>
+      </c>
+      <c r="F914">
+        <v>1</v>
+      </c>
+      <c r="G914">
+        <v>101</v>
+      </c>
+      <c r="H914">
+        <v>5</v>
+      </c>
+      <c r="I914" s="3">
+        <v>45391</v>
+      </c>
+      <c r="J914">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="915" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A915" t="s">
+        <v>113</v>
+      </c>
+      <c r="B915" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C915" t="s">
+        <v>112</v>
+      </c>
+      <c r="D915" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E915" t="s">
+        <v>19</v>
+      </c>
+      <c r="F915">
+        <v>1</v>
+      </c>
+      <c r="G915">
+        <v>101</v>
+      </c>
+      <c r="H915">
+        <v>5</v>
+      </c>
+      <c r="I915" s="3">
+        <v>45392</v>
+      </c>
+      <c r="J915">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="916" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A916" t="s">
+        <v>114</v>
+      </c>
+      <c r="B916" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C916" t="s">
+        <v>112</v>
+      </c>
+      <c r="D916" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E916" t="s">
+        <v>19</v>
+      </c>
+      <c r="F916">
+        <v>1</v>
+      </c>
+      <c r="G916">
+        <v>101</v>
+      </c>
+      <c r="H916">
+        <v>5</v>
+      </c>
+      <c r="I916" s="3">
+        <v>45393</v>
+      </c>
+      <c r="J916">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="917" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A917" t="s">
+        <v>115</v>
+      </c>
+      <c r="B917" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C917" t="s">
+        <v>112</v>
+      </c>
+      <c r="D917" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E917" t="s">
+        <v>11</v>
+      </c>
+      <c r="F917">
+        <v>1</v>
+      </c>
+      <c r="G917">
+        <v>102</v>
+      </c>
+      <c r="H917">
+        <v>5</v>
+      </c>
+      <c r="I917" s="3">
+        <v>45394</v>
+      </c>
+      <c r="J917">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="918" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A918" t="s">
+        <v>116</v>
+      </c>
+      <c r="B918" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C918" t="s">
+        <v>112</v>
+      </c>
+      <c r="D918" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E918" t="s">
+        <v>11</v>
+      </c>
+      <c r="F918">
+        <v>1</v>
+      </c>
+      <c r="G918">
+        <v>102</v>
+      </c>
+      <c r="H918">
+        <v>5</v>
+      </c>
+      <c r="I918" s="3">
+        <v>45395</v>
+      </c>
+      <c r="J918">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="919" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A919" t="s">
+        <v>117</v>
+      </c>
+      <c r="B919" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C919" t="s">
+        <v>112</v>
+      </c>
+      <c r="D919" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E919" t="s">
+        <v>11</v>
+      </c>
+      <c r="F919">
+        <v>1</v>
+      </c>
+      <c r="G919">
+        <v>102</v>
+      </c>
+      <c r="H919">
+        <v>5</v>
+      </c>
+      <c r="I919" s="3">
+        <v>45396</v>
+      </c>
+      <c r="J919">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="920" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A920" t="s">
+        <v>118</v>
+      </c>
+      <c r="B920" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C920" t="s">
+        <v>112</v>
+      </c>
+      <c r="D920" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E920" t="s">
+        <v>23</v>
+      </c>
+      <c r="F920">
+        <v>1</v>
+      </c>
+      <c r="G920">
+        <v>103</v>
+      </c>
+      <c r="H920">
+        <v>5</v>
+      </c>
+      <c r="I920" s="3">
+        <v>45397</v>
+      </c>
+      <c r="J920">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="921" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A921" t="s">
+        <v>119</v>
+      </c>
+      <c r="B921" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C921" t="s">
+        <v>112</v>
+      </c>
+      <c r="D921" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E921" t="s">
+        <v>23</v>
+      </c>
+      <c r="F921">
+        <v>1</v>
+      </c>
+      <c r="G921">
+        <v>103</v>
+      </c>
+      <c r="H921">
+        <v>5</v>
+      </c>
+      <c r="I921" s="3">
+        <v>45398</v>
+      </c>
+      <c r="J921">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="922" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A922" t="s">
+        <v>120</v>
+      </c>
+      <c r="B922" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C922" t="s">
+        <v>112</v>
+      </c>
+      <c r="D922" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E922" t="s">
+        <v>23</v>
+      </c>
+      <c r="F922">
+        <v>1</v>
+      </c>
+      <c r="G922">
+        <v>103</v>
+      </c>
+      <c r="H922">
+        <v>5</v>
+      </c>
+      <c r="I922" s="3">
+        <v>45399</v>
+      </c>
+      <c r="J922">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="923" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A923" t="s">
+        <v>121</v>
+      </c>
+      <c r="B923" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C923" t="s">
+        <v>112</v>
+      </c>
+      <c r="D923" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E923" t="s">
+        <v>15</v>
+      </c>
+      <c r="F923">
+        <v>1</v>
+      </c>
+      <c r="G923">
+        <v>104</v>
+      </c>
+      <c r="H923">
+        <v>5</v>
+      </c>
+      <c r="I923" s="3">
+        <v>45400</v>
+      </c>
+      <c r="J923">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="924" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A924" t="s">
+        <v>122</v>
+      </c>
+      <c r="B924" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C924" t="s">
+        <v>112</v>
+      </c>
+      <c r="D924" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E924" t="s">
+        <v>15</v>
+      </c>
+      <c r="F924">
+        <v>1</v>
+      </c>
+      <c r="G924">
+        <v>104</v>
+      </c>
+      <c r="H924">
+        <v>5</v>
+      </c>
+      <c r="I924" s="3">
+        <v>45401</v>
+      </c>
+      <c r="J924">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="925" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A925" t="s">
+        <v>123</v>
+      </c>
+      <c r="B925" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C925" t="s">
+        <v>112</v>
+      </c>
+      <c r="D925" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E925" t="s">
+        <v>15</v>
+      </c>
+      <c r="F925">
+        <v>1</v>
+      </c>
+      <c r="G925">
+        <v>104</v>
+      </c>
+      <c r="H925">
+        <v>5</v>
+      </c>
+      <c r="I925" s="3">
+        <v>45402</v>
+      </c>
+      <c r="J925">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="926" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A926" t="s">
+        <v>124</v>
+      </c>
+      <c r="B926" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C926" t="s">
+        <v>112</v>
+      </c>
+      <c r="D926" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E926" t="s">
+        <v>23</v>
+      </c>
+      <c r="F926">
+        <v>2</v>
+      </c>
+      <c r="G926">
+        <v>201</v>
+      </c>
+      <c r="H926">
+        <v>5</v>
+      </c>
+      <c r="I926" s="3">
+        <v>45403</v>
+      </c>
+      <c r="J926">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="927" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A927" t="s">
+        <v>125</v>
+      </c>
+      <c r="B927" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C927" t="s">
+        <v>112</v>
+      </c>
+      <c r="D927" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E927" t="s">
+        <v>23</v>
+      </c>
+      <c r="F927">
+        <v>2</v>
+      </c>
+      <c r="G927">
+        <v>201</v>
+      </c>
+      <c r="H927">
+        <v>5</v>
+      </c>
+      <c r="I927" s="3">
+        <v>45404</v>
+      </c>
+      <c r="J927">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="928" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A928" t="s">
+        <v>126</v>
+      </c>
+      <c r="B928" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C928" t="s">
+        <v>112</v>
+      </c>
+      <c r="D928" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E928" t="s">
+        <v>23</v>
+      </c>
+      <c r="F928">
+        <v>2</v>
+      </c>
+      <c r="G928">
+        <v>201</v>
+      </c>
+      <c r="H928">
+        <v>5</v>
+      </c>
+      <c r="I928" s="3">
+        <v>45405</v>
+      </c>
+      <c r="J928">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="929" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A929" t="s">
+        <v>127</v>
+      </c>
+      <c r="B929" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C929" t="s">
+        <v>112</v>
+      </c>
+      <c r="D929" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E929" t="s">
+        <v>15</v>
+      </c>
+      <c r="F929">
+        <v>2</v>
+      </c>
+      <c r="G929">
+        <v>202</v>
+      </c>
+      <c r="H929">
+        <v>5</v>
+      </c>
+      <c r="I929" s="3">
+        <v>45406</v>
+      </c>
+      <c r="J929">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="930" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A930" t="s">
+        <v>128</v>
+      </c>
+      <c r="B930" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C930" t="s">
+        <v>112</v>
+      </c>
+      <c r="D930" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E930" t="s">
+        <v>15</v>
+      </c>
+      <c r="F930">
+        <v>2</v>
+      </c>
+      <c r="G930">
+        <v>202</v>
+      </c>
+      <c r="H930">
+        <v>5</v>
+      </c>
+      <c r="I930" s="3">
+        <v>45407</v>
+      </c>
+      <c r="J930">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="931" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A931" t="s">
+        <v>129</v>
+      </c>
+      <c r="B931" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C931" t="s">
+        <v>112</v>
+      </c>
+      <c r="D931" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E931" t="s">
+        <v>15</v>
+      </c>
+      <c r="F931">
+        <v>2</v>
+      </c>
+      <c r="G931">
+        <v>202</v>
+      </c>
+      <c r="H931">
+        <v>5</v>
+      </c>
+      <c r="I931" s="3">
+        <v>45408</v>
+      </c>
+      <c r="J931">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="932" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A932" t="s">
+        <v>130</v>
+      </c>
+      <c r="B932" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C932" t="s">
+        <v>112</v>
+      </c>
+      <c r="D932" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E932" t="s">
+        <v>19</v>
+      </c>
+      <c r="F932">
+        <v>2</v>
+      </c>
+      <c r="G932">
+        <v>203</v>
+      </c>
+      <c r="H932">
+        <v>5</v>
+      </c>
+      <c r="I932" s="3">
+        <v>45409</v>
+      </c>
+      <c r="J932">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="933" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A933" t="s">
+        <v>131</v>
+      </c>
+      <c r="B933" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C933" t="s">
+        <v>112</v>
+      </c>
+      <c r="D933" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E933" t="s">
+        <v>19</v>
+      </c>
+      <c r="F933">
+        <v>2</v>
+      </c>
+      <c r="G933">
+        <v>203</v>
+      </c>
+      <c r="H933">
+        <v>5</v>
+      </c>
+      <c r="I933" s="3">
+        <v>45410</v>
+      </c>
+      <c r="J933">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="934" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A934" t="s">
+        <v>132</v>
+      </c>
+      <c r="B934" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C934" t="s">
+        <v>112</v>
+      </c>
+      <c r="D934" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E934" t="s">
+        <v>19</v>
+      </c>
+      <c r="F934">
+        <v>2</v>
+      </c>
+      <c r="G934">
+        <v>203</v>
+      </c>
+      <c r="H934">
+        <v>5</v>
+      </c>
+      <c r="I934" s="3">
+        <v>45411</v>
+      </c>
+      <c r="J934">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="935" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A935" t="s">
+        <v>133</v>
+      </c>
+      <c r="B935" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C935" t="s">
+        <v>112</v>
+      </c>
+      <c r="D935" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E935" t="s">
+        <v>11</v>
+      </c>
+      <c r="F935">
+        <v>2</v>
+      </c>
+      <c r="G935">
+        <v>204</v>
+      </c>
+      <c r="H935">
+        <v>5</v>
+      </c>
+      <c r="I935" s="3">
+        <v>45412</v>
+      </c>
+      <c r="J935">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="936" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A936" t="s">
+        <v>134</v>
+      </c>
+      <c r="B936" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C936" t="s">
+        <v>112</v>
+      </c>
+      <c r="D936" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E936" t="s">
+        <v>11</v>
+      </c>
+      <c r="F936">
+        <v>2</v>
+      </c>
+      <c r="G936">
+        <v>204</v>
+      </c>
+      <c r="H936">
+        <v>5</v>
+      </c>
+      <c r="I936" s="3">
+        <v>45413</v>
+      </c>
+      <c r="J936">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="937" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A937" t="s">
+        <v>135</v>
+      </c>
+      <c r="B937" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C937" t="s">
+        <v>112</v>
+      </c>
+      <c r="D937" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E937" t="s">
+        <v>11</v>
+      </c>
+      <c r="F937">
+        <v>2</v>
+      </c>
+      <c r="G937">
+        <v>204</v>
+      </c>
+      <c r="H937">
+        <v>5</v>
+      </c>
+      <c r="I937" s="3">
+        <v>45414</v>
+      </c>
+      <c r="J937">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="938" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A938" t="s">
+        <v>136</v>
+      </c>
+      <c r="B938" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C938" t="s">
+        <v>112</v>
+      </c>
+      <c r="D938" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E938" t="s">
+        <v>15</v>
+      </c>
+      <c r="F938">
+        <v>3</v>
+      </c>
+      <c r="G938">
+        <v>301</v>
+      </c>
+      <c r="H938">
+        <v>5</v>
+      </c>
+      <c r="I938" s="3">
+        <v>45415</v>
+      </c>
+      <c r="J938">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="939" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A939" t="s">
+        <v>137</v>
+      </c>
+      <c r="B939" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C939" t="s">
+        <v>112</v>
+      </c>
+      <c r="D939" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E939" t="s">
+        <v>15</v>
+      </c>
+      <c r="F939">
+        <v>3</v>
+      </c>
+      <c r="G939">
+        <v>301</v>
+      </c>
+      <c r="H939">
+        <v>5</v>
+      </c>
+      <c r="I939" s="3">
+        <v>45416</v>
+      </c>
+      <c r="J939">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="940" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A940" t="s">
+        <v>138</v>
+      </c>
+      <c r="B940" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C940" t="s">
+        <v>112</v>
+      </c>
+      <c r="D940" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E940" t="s">
+        <v>15</v>
+      </c>
+      <c r="F940">
+        <v>3</v>
+      </c>
+      <c r="G940">
+        <v>301</v>
+      </c>
+      <c r="H940">
+        <v>5</v>
+      </c>
+      <c r="I940" s="3">
+        <v>45417</v>
+      </c>
+      <c r="J940">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="941" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A941" t="s">
+        <v>139</v>
+      </c>
+      <c r="B941" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C941" t="s">
+        <v>112</v>
+      </c>
+      <c r="D941" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E941" t="s">
+        <v>19</v>
+      </c>
+      <c r="F941">
+        <v>3</v>
+      </c>
+      <c r="G941">
+        <v>302</v>
+      </c>
+      <c r="H941">
+        <v>5</v>
+      </c>
+      <c r="I941" s="3">
+        <v>45418</v>
+      </c>
+      <c r="J941">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="942" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A942" t="s">
+        <v>140</v>
+      </c>
+      <c r="B942" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C942" t="s">
+        <v>112</v>
+      </c>
+      <c r="D942" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E942" t="s">
+        <v>19</v>
+      </c>
+      <c r="F942">
+        <v>3</v>
+      </c>
+      <c r="G942">
+        <v>302</v>
+      </c>
+      <c r="H942">
+        <v>5</v>
+      </c>
+      <c r="I942" s="3">
+        <v>45419</v>
+      </c>
+      <c r="J942">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="943" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A943" t="s">
+        <v>141</v>
+      </c>
+      <c r="B943" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C943" t="s">
+        <v>112</v>
+      </c>
+      <c r="D943" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E943" t="s">
+        <v>19</v>
+      </c>
+      <c r="F943">
+        <v>3</v>
+      </c>
+      <c r="G943">
+        <v>302</v>
+      </c>
+      <c r="H943">
+        <v>5</v>
+      </c>
+      <c r="I943" s="3">
+        <v>45420</v>
+      </c>
+      <c r="J943">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="944" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A944" t="s">
+        <v>142</v>
+      </c>
+      <c r="B944" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C944" t="s">
+        <v>112</v>
+      </c>
+      <c r="D944" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E944" t="s">
+        <v>11</v>
+      </c>
+      <c r="F944">
+        <v>3</v>
+      </c>
+      <c r="G944">
+        <v>303</v>
+      </c>
+      <c r="H944">
+        <v>5</v>
+      </c>
+      <c r="I944" s="3">
+        <v>45421</v>
+      </c>
+      <c r="J944">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="945" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A945" t="s">
+        <v>143</v>
+      </c>
+      <c r="B945" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C945" t="s">
+        <v>112</v>
+      </c>
+      <c r="D945" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E945" t="s">
+        <v>11</v>
+      </c>
+      <c r="F945">
+        <v>3</v>
+      </c>
+      <c r="G945">
+        <v>303</v>
+      </c>
+      <c r="H945">
+        <v>5</v>
+      </c>
+      <c r="I945" s="3">
+        <v>45422</v>
+      </c>
+      <c r="J945">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="946" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A946" t="s">
+        <v>144</v>
+      </c>
+      <c r="B946" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C946" t="s">
+        <v>112</v>
+      </c>
+      <c r="D946" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E946" t="s">
+        <v>11</v>
+      </c>
+      <c r="F946">
+        <v>3</v>
+      </c>
+      <c r="G946">
+        <v>303</v>
+      </c>
+      <c r="H946">
+        <v>5</v>
+      </c>
+      <c r="I946" s="3">
+        <v>45423</v>
+      </c>
+      <c r="J946">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="947" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A947" t="s">
+        <v>145</v>
+      </c>
+      <c r="B947" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C947" t="s">
+        <v>112</v>
+      </c>
+      <c r="D947" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E947" t="s">
+        <v>23</v>
+      </c>
+      <c r="F947">
+        <v>3</v>
+      </c>
+      <c r="G947">
+        <v>304</v>
+      </c>
+      <c r="H947">
+        <v>5</v>
+      </c>
+      <c r="I947" s="3">
+        <v>45424</v>
+      </c>
+      <c r="J947">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="948" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A948" t="s">
+        <v>146</v>
+      </c>
+      <c r="B948" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C948" t="s">
+        <v>112</v>
+      </c>
+      <c r="D948" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E948" t="s">
+        <v>23</v>
+      </c>
+      <c r="F948">
+        <v>3</v>
+      </c>
+      <c r="G948">
+        <v>304</v>
+      </c>
+      <c r="H948">
+        <v>5</v>
+      </c>
+      <c r="I948" s="3">
+        <v>45425</v>
+      </c>
+      <c r="J948">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="949" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A949" t="s">
+        <v>147</v>
+      </c>
+      <c r="B949" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C949" t="s">
+        <v>112</v>
+      </c>
+      <c r="D949" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E949" t="s">
+        <v>23</v>
+      </c>
+      <c r="F949">
+        <v>3</v>
+      </c>
+      <c r="G949">
+        <v>304</v>
+      </c>
+      <c r="H949">
+        <v>5</v>
+      </c>
+      <c r="I949" s="3">
+        <v>45426</v>
+      </c>
+      <c r="J949">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="950" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A950" t="s">
+        <v>148</v>
+      </c>
+      <c r="B950" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C950" t="s">
+        <v>112</v>
+      </c>
+      <c r="D950" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E950" t="s">
+        <v>11</v>
+      </c>
+      <c r="F950">
+        <v>4</v>
+      </c>
+      <c r="G950">
+        <v>401</v>
+      </c>
+      <c r="H950">
+        <v>5</v>
+      </c>
+      <c r="I950" s="3">
+        <v>45427</v>
+      </c>
+      <c r="J950">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="951" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A951" t="s">
+        <v>149</v>
+      </c>
+      <c r="B951" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C951" t="s">
+        <v>112</v>
+      </c>
+      <c r="D951" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E951" t="s">
+        <v>11</v>
+      </c>
+      <c r="F951">
+        <v>4</v>
+      </c>
+      <c r="G951">
+        <v>401</v>
+      </c>
+      <c r="H951">
+        <v>5</v>
+      </c>
+      <c r="I951" s="3">
+        <v>45428</v>
+      </c>
+      <c r="J951">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="952" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A952" t="s">
+        <v>150</v>
+      </c>
+      <c r="B952" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C952" t="s">
+        <v>112</v>
+      </c>
+      <c r="D952" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E952" t="s">
+        <v>11</v>
+      </c>
+      <c r="F952">
+        <v>4</v>
+      </c>
+      <c r="G952">
+        <v>401</v>
+      </c>
+      <c r="H952">
+        <v>5</v>
+      </c>
+      <c r="I952" s="3">
+        <v>45429</v>
+      </c>
+      <c r="J952">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="953" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A953" t="s">
+        <v>151</v>
+      </c>
+      <c r="B953" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C953" t="s">
+        <v>112</v>
+      </c>
+      <c r="D953" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E953" t="s">
+        <v>23</v>
+      </c>
+      <c r="F953">
+        <v>4</v>
+      </c>
+      <c r="G953">
+        <v>402</v>
+      </c>
+      <c r="H953">
+        <v>5</v>
+      </c>
+      <c r="I953" s="3">
+        <v>45430</v>
+      </c>
+      <c r="J953">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="954" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A954" t="s">
+        <v>152</v>
+      </c>
+      <c r="B954" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C954" t="s">
+        <v>112</v>
+      </c>
+      <c r="D954" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E954" t="s">
+        <v>23</v>
+      </c>
+      <c r="F954">
+        <v>4</v>
+      </c>
+      <c r="G954">
+        <v>402</v>
+      </c>
+      <c r="H954">
+        <v>5</v>
+      </c>
+      <c r="I954" s="3">
+        <v>45431</v>
+      </c>
+      <c r="J954">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="955" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A955" t="s">
+        <v>153</v>
+      </c>
+      <c r="B955" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C955" t="s">
+        <v>112</v>
+      </c>
+      <c r="D955" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E955" t="s">
+        <v>23</v>
+      </c>
+      <c r="F955">
+        <v>4</v>
+      </c>
+      <c r="G955">
+        <v>402</v>
+      </c>
+      <c r="H955">
+        <v>5</v>
+      </c>
+      <c r="I955" s="3">
+        <v>45432</v>
+      </c>
+      <c r="J955">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="956" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A956" t="s">
+        <v>154</v>
+      </c>
+      <c r="B956" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C956" t="s">
+        <v>112</v>
+      </c>
+      <c r="D956" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E956" t="s">
+        <v>15</v>
+      </c>
+      <c r="F956">
+        <v>4</v>
+      </c>
+      <c r="G956">
+        <v>403</v>
+      </c>
+      <c r="H956">
+        <v>5</v>
+      </c>
+      <c r="I956" s="3">
+        <v>45433</v>
+      </c>
+      <c r="J956">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="957" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A957" t="s">
+        <v>155</v>
+      </c>
+      <c r="B957" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C957" t="s">
+        <v>112</v>
+      </c>
+      <c r="D957" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E957" t="s">
+        <v>15</v>
+      </c>
+      <c r="F957">
+        <v>4</v>
+      </c>
+      <c r="G957">
+        <v>403</v>
+      </c>
+      <c r="H957">
+        <v>5</v>
+      </c>
+      <c r="I957" s="3">
+        <v>45434</v>
+      </c>
+      <c r="J957">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="958" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A958" t="s">
+        <v>156</v>
+      </c>
+      <c r="B958" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C958" t="s">
+        <v>112</v>
+      </c>
+      <c r="D958" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E958" t="s">
+        <v>15</v>
+      </c>
+      <c r="F958">
+        <v>4</v>
+      </c>
+      <c r="G958">
+        <v>403</v>
+      </c>
+      <c r="H958">
+        <v>5</v>
+      </c>
+      <c r="I958" s="3">
+        <v>45435</v>
+      </c>
+      <c r="J958">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="959" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A959" t="s">
+        <v>157</v>
+      </c>
+      <c r="B959" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C959" t="s">
+        <v>112</v>
+      </c>
+      <c r="D959" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E959" t="s">
+        <v>19</v>
+      </c>
+      <c r="F959">
+        <v>4</v>
+      </c>
+      <c r="G959">
+        <v>404</v>
+      </c>
+      <c r="H959">
+        <v>5</v>
+      </c>
+      <c r="I959" s="3">
+        <v>45436</v>
+      </c>
+      <c r="J959">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="960" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A960" t="s">
+        <v>158</v>
+      </c>
+      <c r="B960" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C960" t="s">
+        <v>112</v>
+      </c>
+      <c r="D960" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E960" t="s">
+        <v>19</v>
+      </c>
+      <c r="F960">
+        <v>4</v>
+      </c>
+      <c r="G960">
+        <v>404</v>
+      </c>
+      <c r="H960">
+        <v>5</v>
+      </c>
+      <c r="I960" s="3">
+        <v>45437</v>
+      </c>
+      <c r="J960">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="961" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A961" t="s">
+        <v>159</v>
+      </c>
+      <c r="B961" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C961" t="s">
+        <v>112</v>
+      </c>
+      <c r="D961" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E961" t="s">
+        <v>19</v>
+      </c>
+      <c r="F961">
+        <v>4</v>
+      </c>
+      <c r="G961">
+        <v>404</v>
+      </c>
+      <c r="H961">
+        <v>5</v>
+      </c>
+      <c r="I961" s="3">
+        <v>45438</v>
+      </c>
+      <c r="J961">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/raw-data/combined_weed_seeds.xlsx
+++ b/raw-data/combined_weed_seeds.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/IMT/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B123FBA-C1DA-3443-8BE2-3DBAF1B3926D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A537A0DC-B23B-684E-ACD0-4196B5F61C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13980" yWindow="-27980" windowWidth="34160" windowHeight="27980" xr2:uid="{D1CC2367-0668-5146-9204-CD13304FDAF1}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34160" windowHeight="20440" xr2:uid="{D1CC2367-0668-5146-9204-CD13304FDAF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1256,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE444FCA-49F6-CB42-A466-1FD1F4688265}">
   <dimension ref="A1:I1680"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1634" workbookViewId="0">
-      <selection activeCell="E1680" sqref="E1680"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="J242" sqref="J242:J289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
